--- a/TNR_JDD/JDD.RO.UTI.xlsx
+++ b/TNR_JDD/JDD.RO.UTI.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mj0dIt5miQvG/XwZC3S68EiH4XC0w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mibh9StZmn3AmtIRdousp5Dm4Q0Rg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -38,7 +38,7 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table UTI</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
@@ -50,6 +50,9 @@
     <t>TABLE</t>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
     <t>Num écran</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>Libellé des champs (colonnes)</t>
   </si>
   <si>
+    <t>PK en rouge</t>
+  </si>
+  <si>
     <t>La rubrique n'est pas présente dans l'IHM</t>
   </si>
   <si>
@@ -78,6 +84,9 @@
   </si>
   <si>
     <t>Identifiant utilisateur</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
   <si>
     <t xml:space="preserve">Calculé dans le cas des utilisateurs spéciaux:
@@ -94,6 +103,9 @@
     <t>Profil de l'utilisateur</t>
   </si>
   <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
     <t>Calculé dans le cas des utilisateurs spéciaux:
 - Utilisateur lié à une SOCIETE Profil = SOC</t>
   </si>
@@ -110,6 +122,9 @@
     <t>Ecran de démarrage</t>
   </si>
   <si>
+    <t>numeric</t>
+  </si>
+  <si>
     <t>OBSOLETE</t>
   </si>
   <si>
@@ -134,6 +149,9 @@
     <t>@IMPUTATION@</t>
   </si>
   <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
     <t>ID_CODINT</t>
   </si>
   <si>
@@ -155,6 +173,9 @@
     <t>Mot de passe</t>
   </si>
   <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
     <t>NU_NIV</t>
   </si>
   <si>
@@ -167,6 +188,9 @@
     <t>Alarmes</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>ST_VALANU</t>
   </si>
   <si>
@@ -221,6 +245,9 @@
     <t>DT_PWD</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>ST_DES</t>
   </si>
   <si>
@@ -263,6 +290,9 @@
     <t>ST_VOLET</t>
   </si>
   <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
     <t>ST_AFFVOL</t>
   </si>
   <si>
@@ -302,6 +332,9 @@
     <t>code utilisé pour le login mobilité</t>
   </si>
   <si>
+    <t>varchar(5)</t>
+  </si>
+  <si>
     <t>ST_MOBPAS</t>
   </si>
   <si>
@@ -309,6 +342,9 @@
   </si>
   <si>
     <t>ST_LISDISMOD</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
   </si>
   <si>
     <t>ST_TRAUTICRE</t>
@@ -354,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -373,8 +409,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -395,6 +440,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -403,6 +454,11 @@
       <b/>
       <sz val="10.0"/>
       <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -500,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -513,14 +569,20 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -529,42 +591,58 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="10" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -820,12 +898,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1937,3377 +2015,3537 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.5"/>
     <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="38.13"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="11.88"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col customWidth="1" min="3" max="4" width="38.13"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
+    <col customWidth="1" min="7" max="7" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="6">
         <v>1020.0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="D12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" ht="12.75" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" ht="12.75" customHeight="1">
+      <c r="A44" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="E44" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1">
+      <c r="A45" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="E45" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
+      <c r="A46" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1">
+      <c r="A47" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" ht="12.75" customHeight="1">
+      <c r="A48" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1">
+      <c r="A49" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="17" t="s">
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" ht="12.75" customHeight="1">
+      <c r="A50" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="A51" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="A52" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="A53" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="19"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="19"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>21</v>
+      <c r="D53" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>21</v>
+      <c r="A54" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="D55" s="19"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="D56" s="19"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="D57" s="19"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="D58" s="19"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="D59" s="19"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="D60" s="19"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="D61" s="19"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="D62" s="19"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="D63" s="19"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="D64" s="19"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="D65" s="19"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="D66" s="19"/>
+      <c r="E66" s="25"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="D67" s="19"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="D68" s="19"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="D69" s="19"/>
+      <c r="E69" s="25"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="D70" s="19"/>
+      <c r="E70" s="25"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="D71" s="19"/>
+      <c r="E71" s="25"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="D72" s="19"/>
+      <c r="E72" s="25"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="D73" s="19"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="D74" s="19"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="D75" s="19"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="D76" s="19"/>
+      <c r="E76" s="25"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="D77" s="19"/>
+      <c r="E77" s="25"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="D78" s="19"/>
+      <c r="E78" s="25"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="D79" s="19"/>
+      <c r="E79" s="25"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="D80" s="19"/>
+      <c r="E80" s="25"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="D81" s="19"/>
+      <c r="E81" s="25"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="D82" s="19"/>
+      <c r="E82" s="25"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="D83" s="19"/>
+      <c r="E83" s="25"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="D84" s="19"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="D85" s="19"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="D86" s="19"/>
+      <c r="E86" s="25"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="D87" s="19"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="D88" s="19"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="D89" s="19"/>
+      <c r="E89" s="25"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="D90" s="19"/>
+      <c r="E90" s="25"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="D91" s="19"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="D92" s="19"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="D93" s="19"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="D94" s="19"/>
+      <c r="E94" s="25"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="D95" s="19"/>
+      <c r="E95" s="25"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="D96" s="19"/>
+      <c r="E96" s="25"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="D97" s="19"/>
+      <c r="E97" s="25"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="D98" s="19"/>
+      <c r="E98" s="25"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="D99" s="19"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="D100" s="19"/>
+      <c r="E100" s="25"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="D101" s="19"/>
+      <c r="E101" s="25"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="D102" s="19"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="D103" s="19"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="D104" s="19"/>
+      <c r="E104" s="25"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="D105" s="19"/>
+      <c r="E105" s="25"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="D106" s="19"/>
+      <c r="E106" s="25"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="D107" s="19"/>
+      <c r="E107" s="25"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="D108" s="19"/>
+      <c r="E108" s="25"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="D109" s="19"/>
+      <c r="E109" s="25"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="D110" s="19"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="D111" s="19"/>
+      <c r="E111" s="25"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="D112" s="19"/>
+      <c r="E112" s="25"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="D113" s="19"/>
+      <c r="E113" s="25"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="D114" s="19"/>
+      <c r="E114" s="25"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="D115" s="19"/>
+      <c r="E115" s="25"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="D116" s="19"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="D117" s="19"/>
+      <c r="E117" s="25"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="D118" s="19"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="D119" s="19"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="D120" s="19"/>
+      <c r="E120" s="25"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="D121" s="19"/>
+      <c r="E121" s="25"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="D122" s="19"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="D123" s="19"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="D124" s="19"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="D125" s="19"/>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="D126" s="19"/>
+      <c r="E126" s="25"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="D127" s="19"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="D128" s="19"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="D129" s="19"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="D130" s="19"/>
+      <c r="E130" s="25"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="D131" s="19"/>
+      <c r="E131" s="25"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="D132" s="19"/>
+      <c r="E132" s="25"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="D133" s="19"/>
+      <c r="E133" s="25"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="D134" s="19"/>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="D135" s="19"/>
+      <c r="E135" s="25"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="D136" s="19"/>
+      <c r="E136" s="25"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="D137" s="19"/>
+      <c r="E137" s="25"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="D138" s="19"/>
+      <c r="E138" s="25"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="D139" s="19"/>
+      <c r="E139" s="25"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="D140" s="19"/>
+      <c r="E140" s="25"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="D141" s="19"/>
+      <c r="E141" s="25"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="D142" s="19"/>
+      <c r="E142" s="25"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="D143" s="19"/>
+      <c r="E143" s="25"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="D144" s="19"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="D145" s="19"/>
+      <c r="E145" s="25"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="D146" s="19"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="D147" s="19"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="D148" s="19"/>
+      <c r="E148" s="25"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="D149" s="19"/>
+      <c r="E149" s="25"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="D150" s="19"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="D151" s="19"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="D152" s="19"/>
+      <c r="E152" s="25"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="D153" s="19"/>
+      <c r="E153" s="25"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="D154" s="19"/>
+      <c r="E154" s="25"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="D155" s="19"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="D156" s="19"/>
+      <c r="E156" s="25"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="D157" s="19"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="D158" s="19"/>
+      <c r="E158" s="25"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="D159" s="19"/>
+      <c r="E159" s="25"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="D160" s="19"/>
+      <c r="E160" s="25"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="D161" s="19"/>
+      <c r="E161" s="25"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="D162" s="19"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="D163" s="19"/>
+      <c r="E163" s="25"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="D164" s="19"/>
+      <c r="E164" s="25"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="D165" s="19"/>
+      <c r="E165" s="25"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="D166" s="19"/>
+      <c r="E166" s="25"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="D167" s="19"/>
+      <c r="E167" s="25"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="D168" s="19"/>
+      <c r="E168" s="25"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="D169" s="19"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="D170" s="19"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="D171" s="19"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="D172" s="19"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="D173" s="19"/>
+      <c r="E173" s="25"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="D174" s="19"/>
+      <c r="E174" s="25"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="D175" s="19"/>
+      <c r="E175" s="25"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="D176" s="19"/>
+      <c r="E176" s="25"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="D177" s="19"/>
+      <c r="E177" s="25"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="D178" s="19"/>
+      <c r="E178" s="25"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="D179" s="19"/>
+      <c r="E179" s="25"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="D180" s="19"/>
+      <c r="E180" s="25"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="D181" s="19"/>
+      <c r="E181" s="25"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="D182" s="19"/>
+      <c r="E182" s="25"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="D183" s="19"/>
+      <c r="E183" s="25"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="D184" s="19"/>
+      <c r="E184" s="25"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="D185" s="19"/>
+      <c r="E185" s="25"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="D186" s="19"/>
+      <c r="E186" s="25"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="D187" s="19"/>
+      <c r="E187" s="25"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="D188" s="19"/>
+      <c r="E188" s="25"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="D189" s="19"/>
+      <c r="E189" s="25"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="D190" s="19"/>
+      <c r="E190" s="25"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="D191" s="19"/>
+      <c r="E191" s="25"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="D192" s="19"/>
+      <c r="E192" s="25"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="D193" s="19"/>
+      <c r="E193" s="25"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="D194" s="19"/>
+      <c r="E194" s="25"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="D195" s="19"/>
+      <c r="E195" s="25"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="D196" s="19"/>
+      <c r="E196" s="25"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="D197" s="19"/>
+      <c r="E197" s="25"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="D198" s="19"/>
+      <c r="E198" s="25"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="D199" s="19"/>
+      <c r="E199" s="25"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="D200" s="19"/>
+      <c r="E200" s="25"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="D201" s="19"/>
+      <c r="E201" s="25"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="D202" s="19"/>
+      <c r="E202" s="25"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="D203" s="19"/>
+      <c r="E203" s="25"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="D204" s="19"/>
+      <c r="E204" s="25"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="D205" s="19"/>
+      <c r="E205" s="25"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
-      <c r="D206" s="19"/>
+      <c r="E206" s="25"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
-      <c r="D207" s="19"/>
+      <c r="E207" s="25"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
-      <c r="D208" s="19"/>
+      <c r="E208" s="25"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
-      <c r="D209" s="19"/>
+      <c r="E209" s="25"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
-      <c r="D210" s="19"/>
+      <c r="E210" s="25"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
-      <c r="D211" s="19"/>
+      <c r="E211" s="25"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
-      <c r="D212" s="19"/>
+      <c r="E212" s="25"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
-      <c r="D213" s="19"/>
+      <c r="E213" s="25"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
-      <c r="D214" s="19"/>
+      <c r="E214" s="25"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
-      <c r="D215" s="19"/>
+      <c r="E215" s="25"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="D216" s="19"/>
+      <c r="E216" s="25"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="D217" s="19"/>
+      <c r="E217" s="25"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
-      <c r="D218" s="19"/>
+      <c r="E218" s="25"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
-      <c r="D219" s="19"/>
+      <c r="E219" s="25"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
-      <c r="D220" s="19"/>
+      <c r="E220" s="25"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="D221" s="19"/>
+      <c r="E221" s="25"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="D222" s="19"/>
+      <c r="E222" s="25"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="D223" s="19"/>
+      <c r="E223" s="25"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="D224" s="19"/>
+      <c r="E224" s="25"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
-      <c r="D225" s="19"/>
+      <c r="E225" s="25"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
-      <c r="D226" s="19"/>
+      <c r="E226" s="25"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
-      <c r="D227" s="19"/>
+      <c r="E227" s="25"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
-      <c r="D228" s="19"/>
+      <c r="E228" s="25"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
-      <c r="D229" s="19"/>
+      <c r="E229" s="25"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
-      <c r="D230" s="19"/>
+      <c r="E230" s="25"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
-      <c r="D231" s="19"/>
+      <c r="E231" s="25"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
-      <c r="D232" s="19"/>
+      <c r="E232" s="25"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
-      <c r="D233" s="19"/>
+      <c r="E233" s="25"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="D234" s="19"/>
+      <c r="E234" s="25"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="D235" s="19"/>
+      <c r="E235" s="25"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="D236" s="19"/>
+      <c r="E236" s="25"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="D237" s="19"/>
+      <c r="E237" s="25"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="D238" s="19"/>
+      <c r="E238" s="25"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="D239" s="19"/>
+      <c r="E239" s="25"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="D240" s="19"/>
+      <c r="E240" s="25"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="D241" s="19"/>
+      <c r="E241" s="25"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="D242" s="19"/>
+      <c r="E242" s="25"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="D243" s="19"/>
+      <c r="E243" s="25"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="D244" s="19"/>
+      <c r="E244" s="25"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="D245" s="19"/>
+      <c r="E245" s="25"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="D246" s="19"/>
+      <c r="E246" s="25"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="D247" s="19"/>
+      <c r="E247" s="25"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="D248" s="19"/>
+      <c r="E248" s="25"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="D249" s="19"/>
+      <c r="E249" s="25"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="D250" s="19"/>
+      <c r="E250" s="25"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="D251" s="19"/>
+      <c r="E251" s="25"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="D252" s="19"/>
+      <c r="E252" s="25"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="D253" s="19"/>
+      <c r="E253" s="25"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
-      <c r="D254" s="19"/>
+      <c r="E254" s="25"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="19"/>
+      <c r="E255" s="25"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="19"/>
+      <c r="E256" s="25"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="19"/>
+      <c r="E257" s="25"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="19"/>
+      <c r="E258" s="25"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="19"/>
+      <c r="E259" s="25"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="19"/>
+      <c r="E260" s="25"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="19"/>
+      <c r="E261" s="25"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="19"/>
+      <c r="E262" s="25"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="19"/>
+      <c r="E263" s="25"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="19"/>
+      <c r="E264" s="25"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="19"/>
+      <c r="E265" s="25"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="19"/>
+      <c r="E266" s="25"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="19"/>
+      <c r="E267" s="25"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="19"/>
+      <c r="E268" s="25"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="19"/>
+      <c r="E269" s="25"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="19"/>
+      <c r="E270" s="25"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="19"/>
+      <c r="E271" s="25"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="19"/>
+      <c r="E272" s="25"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="19"/>
+      <c r="E273" s="25"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="19"/>
+      <c r="E274" s="25"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="19"/>
+      <c r="E275" s="25"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="19"/>
+      <c r="E276" s="25"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="19"/>
+      <c r="E277" s="25"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="19"/>
+      <c r="E278" s="25"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="19"/>
+      <c r="E279" s="25"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="19"/>
+      <c r="E280" s="25"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="19"/>
+      <c r="E281" s="25"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="19"/>
+      <c r="E282" s="25"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="19"/>
+      <c r="E283" s="25"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="19"/>
+      <c r="E284" s="25"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="19"/>
+      <c r="E285" s="25"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="19"/>
+      <c r="E286" s="25"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="19"/>
+      <c r="E287" s="25"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="19"/>
+      <c r="E288" s="25"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="19"/>
+      <c r="E289" s="25"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="19"/>
+      <c r="E290" s="25"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="19"/>
+      <c r="E291" s="25"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="19"/>
+      <c r="E292" s="25"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="19"/>
+      <c r="E293" s="25"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="19"/>
+      <c r="E294" s="25"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="19"/>
+      <c r="E295" s="25"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="19"/>
+      <c r="E296" s="25"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="19"/>
+      <c r="E297" s="25"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="19"/>
+      <c r="E298" s="25"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="19"/>
+      <c r="E299" s="25"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="19"/>
+      <c r="E300" s="25"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="19"/>
+      <c r="E301" s="25"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="19"/>
+      <c r="E302" s="25"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="19"/>
+      <c r="E303" s="25"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="19"/>
+      <c r="E304" s="25"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="19"/>
+      <c r="E305" s="25"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="19"/>
+      <c r="E306" s="25"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="19"/>
+      <c r="E307" s="25"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="19"/>
+      <c r="E308" s="25"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="19"/>
+      <c r="E309" s="25"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="19"/>
+      <c r="E310" s="25"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="19"/>
+      <c r="E311" s="25"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="19"/>
+      <c r="E312" s="25"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="19"/>
+      <c r="E313" s="25"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="19"/>
+      <c r="E314" s="25"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="19"/>
+      <c r="E315" s="25"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="19"/>
+      <c r="E316" s="25"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="19"/>
+      <c r="E317" s="25"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="19"/>
+      <c r="E318" s="25"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="19"/>
+      <c r="E319" s="25"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="19"/>
+      <c r="E320" s="25"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="19"/>
+      <c r="E321" s="25"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="19"/>
+      <c r="E322" s="25"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="19"/>
+      <c r="E323" s="25"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="19"/>
+      <c r="E324" s="25"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="19"/>
+      <c r="E325" s="25"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="19"/>
+      <c r="E326" s="25"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="19"/>
+      <c r="E327" s="25"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="19"/>
+      <c r="E328" s="25"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="19"/>
+      <c r="E329" s="25"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="19"/>
+      <c r="E330" s="25"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="19"/>
+      <c r="E331" s="25"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="19"/>
+      <c r="E332" s="25"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="19"/>
+      <c r="E333" s="25"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="19"/>
+      <c r="E334" s="25"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="19"/>
+      <c r="E335" s="25"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="19"/>
+      <c r="E336" s="25"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="19"/>
+      <c r="E337" s="25"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="19"/>
+      <c r="E338" s="25"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="19"/>
+      <c r="E339" s="25"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="19"/>
+      <c r="E340" s="25"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="19"/>
+      <c r="E341" s="25"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="19"/>
+      <c r="E342" s="25"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="19"/>
+      <c r="E343" s="25"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="19"/>
+      <c r="E344" s="25"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="19"/>
+      <c r="E345" s="25"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="19"/>
+      <c r="E346" s="25"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="19"/>
+      <c r="E347" s="25"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="19"/>
+      <c r="E348" s="25"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="19"/>
+      <c r="E349" s="25"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="19"/>
+      <c r="E350" s="25"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="19"/>
+      <c r="E351" s="25"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="D352" s="19"/>
+      <c r="E352" s="25"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="D353" s="19"/>
+      <c r="E353" s="25"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="D354" s="19"/>
+      <c r="E354" s="25"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="D355" s="19"/>
+      <c r="E355" s="25"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="D356" s="19"/>
+      <c r="E356" s="25"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="D357" s="19"/>
+      <c r="E357" s="25"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="D358" s="19"/>
+      <c r="E358" s="25"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="D359" s="19"/>
+      <c r="E359" s="25"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="D360" s="19"/>
+      <c r="E360" s="25"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="D361" s="19"/>
+      <c r="E361" s="25"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="D362" s="19"/>
+      <c r="E362" s="25"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="D363" s="19"/>
+      <c r="E363" s="25"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="D364" s="19"/>
+      <c r="E364" s="25"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="D365" s="19"/>
+      <c r="E365" s="25"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="D366" s="19"/>
+      <c r="E366" s="25"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="D367" s="19"/>
+      <c r="E367" s="25"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="D368" s="19"/>
+      <c r="E368" s="25"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="D369" s="19"/>
+      <c r="E369" s="25"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="D370" s="19"/>
+      <c r="E370" s="25"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="D371" s="19"/>
+      <c r="E371" s="25"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="D372" s="19"/>
+      <c r="E372" s="25"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="D373" s="19"/>
+      <c r="E373" s="25"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="D374" s="19"/>
+      <c r="E374" s="25"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="D375" s="19"/>
+      <c r="E375" s="25"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="D376" s="19"/>
+      <c r="E376" s="25"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="D377" s="19"/>
+      <c r="E377" s="25"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="D378" s="19"/>
+      <c r="E378" s="25"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="D379" s="19"/>
+      <c r="E379" s="25"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="D380" s="19"/>
+      <c r="E380" s="25"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="D381" s="19"/>
+      <c r="E381" s="25"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="D382" s="19"/>
+      <c r="E382" s="25"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="D383" s="19"/>
+      <c r="E383" s="25"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="D384" s="19"/>
+      <c r="E384" s="25"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="D385" s="19"/>
+      <c r="E385" s="25"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="D386" s="19"/>
+      <c r="E386" s="25"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="D387" s="19"/>
+      <c r="E387" s="25"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="D388" s="19"/>
+      <c r="E388" s="25"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="D389" s="19"/>
+      <c r="E389" s="25"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="D390" s="19"/>
+      <c r="E390" s="25"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="D391" s="19"/>
+      <c r="E391" s="25"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="D392" s="19"/>
+      <c r="E392" s="25"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="D393" s="19"/>
+      <c r="E393" s="25"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="D394" s="19"/>
+      <c r="E394" s="25"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="D395" s="19"/>
+      <c r="E395" s="25"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="D396" s="19"/>
+      <c r="E396" s="25"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="D397" s="19"/>
+      <c r="E397" s="25"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="D398" s="19"/>
+      <c r="E398" s="25"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="D399" s="19"/>
+      <c r="E399" s="25"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="D400" s="19"/>
+      <c r="E400" s="25"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="D401" s="19"/>
+      <c r="E401" s="25"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="D402" s="19"/>
+      <c r="E402" s="25"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="D403" s="19"/>
+      <c r="E403" s="25"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="D404" s="19"/>
+      <c r="E404" s="25"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="D405" s="19"/>
+      <c r="E405" s="25"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="D406" s="19"/>
+      <c r="E406" s="25"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="D407" s="19"/>
+      <c r="E407" s="25"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="D408" s="19"/>
+      <c r="E408" s="25"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="D409" s="19"/>
+      <c r="E409" s="25"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="D410" s="19"/>
+      <c r="E410" s="25"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="D411" s="19"/>
+      <c r="E411" s="25"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="D412" s="19"/>
+      <c r="E412" s="25"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="D413" s="19"/>
+      <c r="E413" s="25"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="D414" s="19"/>
+      <c r="E414" s="25"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="D415" s="19"/>
+      <c r="E415" s="25"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="D416" s="19"/>
+      <c r="E416" s="25"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="D417" s="19"/>
+      <c r="E417" s="25"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="D418" s="19"/>
+      <c r="E418" s="25"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="D419" s="19"/>
+      <c r="E419" s="25"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="D420" s="19"/>
+      <c r="E420" s="25"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="D421" s="19"/>
+      <c r="E421" s="25"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="D422" s="19"/>
+      <c r="E422" s="25"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="D423" s="19"/>
+      <c r="E423" s="25"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="D424" s="19"/>
+      <c r="E424" s="25"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="D425" s="19"/>
+      <c r="E425" s="25"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="D426" s="19"/>
+      <c r="E426" s="25"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="D427" s="19"/>
+      <c r="E427" s="25"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="D428" s="19"/>
+      <c r="E428" s="25"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="D429" s="19"/>
+      <c r="E429" s="25"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="D430" s="19"/>
+      <c r="E430" s="25"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="D431" s="19"/>
+      <c r="E431" s="25"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="D432" s="19"/>
+      <c r="E432" s="25"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="D433" s="19"/>
+      <c r="E433" s="25"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="D434" s="19"/>
+      <c r="E434" s="25"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="D435" s="19"/>
+      <c r="E435" s="25"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="D436" s="19"/>
+      <c r="E436" s="25"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="D437" s="19"/>
+      <c r="E437" s="25"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="D438" s="19"/>
+      <c r="E438" s="25"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="D439" s="19"/>
+      <c r="E439" s="25"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="D440" s="19"/>
+      <c r="E440" s="25"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="D441" s="19"/>
+      <c r="E441" s="25"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="D442" s="19"/>
+      <c r="E442" s="25"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="D443" s="19"/>
+      <c r="E443" s="25"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="D444" s="19"/>
+      <c r="E444" s="25"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="D445" s="19"/>
+      <c r="E445" s="25"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="D446" s="19"/>
+      <c r="E446" s="25"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="D447" s="19"/>
+      <c r="E447" s="25"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="D448" s="19"/>
+      <c r="E448" s="25"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="D449" s="19"/>
+      <c r="E449" s="25"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="D450" s="19"/>
+      <c r="E450" s="25"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="D451" s="19"/>
+      <c r="E451" s="25"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="D452" s="19"/>
+      <c r="E452" s="25"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="D453" s="19"/>
+      <c r="E453" s="25"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="D454" s="19"/>
+      <c r="E454" s="25"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="D455" s="19"/>
+      <c r="E455" s="25"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="D456" s="19"/>
+      <c r="E456" s="25"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="D457" s="19"/>
+      <c r="E457" s="25"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="D458" s="19"/>
+      <c r="E458" s="25"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="D459" s="19"/>
+      <c r="E459" s="25"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="D460" s="19"/>
+      <c r="E460" s="25"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="D461" s="19"/>
+      <c r="E461" s="25"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="D462" s="19"/>
+      <c r="E462" s="25"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="D463" s="19"/>
+      <c r="E463" s="25"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="D464" s="19"/>
+      <c r="E464" s="25"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="D465" s="19"/>
+      <c r="E465" s="25"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="D466" s="19"/>
+      <c r="E466" s="25"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="D467" s="19"/>
+      <c r="E467" s="25"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="D468" s="19"/>
+      <c r="E468" s="25"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="D469" s="19"/>
+      <c r="E469" s="25"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="D470" s="19"/>
+      <c r="E470" s="25"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="D471" s="19"/>
+      <c r="E471" s="25"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="D472" s="19"/>
+      <c r="E472" s="25"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="D473" s="19"/>
+      <c r="E473" s="25"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="D474" s="19"/>
+      <c r="E474" s="25"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="D475" s="19"/>
+      <c r="E475" s="25"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="D476" s="19"/>
+      <c r="E476" s="25"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="D477" s="19"/>
+      <c r="E477" s="25"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="D478" s="19"/>
+      <c r="E478" s="25"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="D479" s="19"/>
+      <c r="E479" s="25"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="D480" s="19"/>
+      <c r="E480" s="25"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="D481" s="19"/>
+      <c r="E481" s="25"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="D482" s="19"/>
+      <c r="E482" s="25"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="D483" s="19"/>
+      <c r="E483" s="25"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="D484" s="19"/>
+      <c r="E484" s="25"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="D485" s="19"/>
+      <c r="E485" s="25"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="D486" s="19"/>
+      <c r="E486" s="25"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="D487" s="19"/>
+      <c r="E487" s="25"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="D488" s="19"/>
+      <c r="E488" s="25"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="D489" s="19"/>
+      <c r="E489" s="25"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="D490" s="19"/>
+      <c r="E490" s="25"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="D491" s="19"/>
+      <c r="E491" s="25"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="D492" s="19"/>
+      <c r="E492" s="25"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="D493" s="19"/>
+      <c r="E493" s="25"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="D494" s="19"/>
+      <c r="E494" s="25"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="D495" s="19"/>
+      <c r="E495" s="25"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="D496" s="19"/>
+      <c r="E496" s="25"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="D497" s="19"/>
+      <c r="E497" s="25"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="D498" s="19"/>
+      <c r="E498" s="25"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="D499" s="19"/>
+      <c r="E499" s="25"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="D500" s="19"/>
+      <c r="E500" s="25"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="D501" s="19"/>
+      <c r="E501" s="25"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="D502" s="19"/>
+      <c r="E502" s="25"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="D503" s="19"/>
+      <c r="E503" s="25"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="D504" s="19"/>
+      <c r="E504" s="25"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="D505" s="19"/>
+      <c r="E505" s="25"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="D506" s="19"/>
+      <c r="E506" s="25"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="D507" s="19"/>
+      <c r="E507" s="25"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="D508" s="19"/>
+      <c r="E508" s="25"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="D509" s="19"/>
+      <c r="E509" s="25"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="D510" s="19"/>
+      <c r="E510" s="25"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="D511" s="19"/>
+      <c r="E511" s="25"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="D512" s="19"/>
+      <c r="E512" s="25"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="D513" s="19"/>
+      <c r="E513" s="25"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="D514" s="19"/>
+      <c r="E514" s="25"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="D515" s="19"/>
+      <c r="E515" s="25"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="D516" s="19"/>
+      <c r="E516" s="25"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="D517" s="19"/>
+      <c r="E517" s="25"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="D518" s="19"/>
+      <c r="E518" s="25"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="D519" s="19"/>
+      <c r="E519" s="25"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="D520" s="19"/>
+      <c r="E520" s="25"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="D521" s="19"/>
+      <c r="E521" s="25"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="D522" s="19"/>
+      <c r="E522" s="25"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="D523" s="19"/>
+      <c r="E523" s="25"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="D524" s="19"/>
+      <c r="E524" s="25"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="D525" s="19"/>
+      <c r="E525" s="25"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="D526" s="19"/>
+      <c r="E526" s="25"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="D527" s="19"/>
+      <c r="E527" s="25"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="D528" s="19"/>
+      <c r="E528" s="25"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="D529" s="19"/>
+      <c r="E529" s="25"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="D530" s="19"/>
+      <c r="E530" s="25"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="D531" s="19"/>
+      <c r="E531" s="25"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="D532" s="19"/>
+      <c r="E532" s="25"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="D533" s="19"/>
+      <c r="E533" s="25"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="D534" s="19"/>
+      <c r="E534" s="25"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="D535" s="19"/>
+      <c r="E535" s="25"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="D536" s="19"/>
+      <c r="E536" s="25"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="D537" s="19"/>
+      <c r="E537" s="25"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="D538" s="19"/>
+      <c r="E538" s="25"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="D539" s="19"/>
+      <c r="E539" s="25"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="D540" s="19"/>
+      <c r="E540" s="25"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="D541" s="19"/>
+      <c r="E541" s="25"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="D542" s="19"/>
+      <c r="E542" s="25"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="D543" s="19"/>
+      <c r="E543" s="25"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="D544" s="19"/>
+      <c r="E544" s="25"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="D545" s="19"/>
+      <c r="E545" s="25"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="D546" s="19"/>
+      <c r="E546" s="25"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="D547" s="19"/>
+      <c r="E547" s="25"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="D548" s="19"/>
+      <c r="E548" s="25"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="D549" s="19"/>
+      <c r="E549" s="25"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="D550" s="19"/>
+      <c r="E550" s="25"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="D551" s="19"/>
+      <c r="E551" s="25"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="D552" s="19"/>
+      <c r="E552" s="25"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="D553" s="19"/>
+      <c r="E553" s="25"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="D554" s="19"/>
+      <c r="E554" s="25"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="D555" s="19"/>
+      <c r="E555" s="25"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="D556" s="19"/>
+      <c r="E556" s="25"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="D557" s="19"/>
+      <c r="E557" s="25"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="D558" s="19"/>
+      <c r="E558" s="25"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="D559" s="19"/>
+      <c r="E559" s="25"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="D560" s="19"/>
+      <c r="E560" s="25"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="D561" s="19"/>
+      <c r="E561" s="25"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="D562" s="19"/>
+      <c r="E562" s="25"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="D563" s="19"/>
+      <c r="E563" s="25"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="D564" s="19"/>
+      <c r="E564" s="25"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="D565" s="19"/>
+      <c r="E565" s="25"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="D566" s="19"/>
+      <c r="E566" s="25"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="D567" s="19"/>
+      <c r="E567" s="25"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="D568" s="19"/>
+      <c r="E568" s="25"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="D569" s="19"/>
+      <c r="E569" s="25"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="D570" s="19"/>
+      <c r="E570" s="25"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="D571" s="19"/>
+      <c r="E571" s="25"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="D572" s="19"/>
+      <c r="E572" s="25"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="D573" s="19"/>
+      <c r="E573" s="25"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="D574" s="19"/>
+      <c r="E574" s="25"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="D575" s="19"/>
+      <c r="E575" s="25"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="D576" s="19"/>
+      <c r="E576" s="25"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="D577" s="19"/>
+      <c r="E577" s="25"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="D578" s="19"/>
+      <c r="E578" s="25"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="D579" s="19"/>
+      <c r="E579" s="25"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="D580" s="19"/>
+      <c r="E580" s="25"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="D581" s="19"/>
+      <c r="E581" s="25"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="D582" s="19"/>
+      <c r="E582" s="25"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="D583" s="19"/>
+      <c r="E583" s="25"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="D584" s="19"/>
+      <c r="E584" s="25"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="D585" s="19"/>
+      <c r="E585" s="25"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="D586" s="19"/>
+      <c r="E586" s="25"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="D587" s="19"/>
+      <c r="E587" s="25"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="D588" s="19"/>
+      <c r="E588" s="25"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="D589" s="19"/>
+      <c r="E589" s="25"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="D590" s="19"/>
+      <c r="E590" s="25"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="D591" s="19"/>
+      <c r="E591" s="25"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="D592" s="19"/>
+      <c r="E592" s="25"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="D593" s="19"/>
+      <c r="E593" s="25"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="D594" s="19"/>
+      <c r="E594" s="25"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="D595" s="19"/>
+      <c r="E595" s="25"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="D596" s="19"/>
+      <c r="E596" s="25"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="D597" s="19"/>
+      <c r="E597" s="25"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="D598" s="19"/>
+      <c r="E598" s="25"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="D599" s="19"/>
+      <c r="E599" s="25"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="D600" s="19"/>
+      <c r="E600" s="25"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="D601" s="19"/>
+      <c r="E601" s="25"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="D602" s="19"/>
+      <c r="E602" s="25"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="D603" s="19"/>
+      <c r="E603" s="25"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="D604" s="19"/>
+      <c r="E604" s="25"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="D605" s="19"/>
+      <c r="E605" s="25"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="D606" s="19"/>
+      <c r="E606" s="25"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="D607" s="19"/>
+      <c r="E607" s="25"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="D608" s="19"/>
+      <c r="E608" s="25"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="D609" s="19"/>
+      <c r="E609" s="25"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="D610" s="19"/>
+      <c r="E610" s="25"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="D611" s="19"/>
+      <c r="E611" s="25"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="D612" s="19"/>
+      <c r="E612" s="25"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="D613" s="19"/>
+      <c r="E613" s="25"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="D614" s="19"/>
+      <c r="E614" s="25"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="D615" s="19"/>
+      <c r="E615" s="25"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="D616" s="19"/>
+      <c r="E616" s="25"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="D617" s="19"/>
+      <c r="E617" s="25"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="D618" s="19"/>
+      <c r="E618" s="25"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="D619" s="19"/>
+      <c r="E619" s="25"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="D620" s="19"/>
+      <c r="E620" s="25"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="D621" s="19"/>
+      <c r="E621" s="25"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="D622" s="19"/>
+      <c r="E622" s="25"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="D623" s="19"/>
+      <c r="E623" s="25"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="D624" s="19"/>
+      <c r="E624" s="25"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="D625" s="19"/>
+      <c r="E625" s="25"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="D626" s="19"/>
+      <c r="E626" s="25"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="D627" s="19"/>
+      <c r="E627" s="25"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="D628" s="19"/>
+      <c r="E628" s="25"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="D629" s="19"/>
+      <c r="E629" s="25"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="D630" s="19"/>
+      <c r="E630" s="25"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="D631" s="19"/>
+      <c r="E631" s="25"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="D632" s="19"/>
+      <c r="E632" s="25"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="D633" s="19"/>
+      <c r="E633" s="25"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="D634" s="19"/>
+      <c r="E634" s="25"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="D635" s="19"/>
+      <c r="E635" s="25"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="D636" s="19"/>
+      <c r="E636" s="25"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="D637" s="19"/>
+      <c r="E637" s="25"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="D638" s="19"/>
+      <c r="E638" s="25"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="D639" s="19"/>
+      <c r="E639" s="25"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="D640" s="19"/>
+      <c r="E640" s="25"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="D641" s="19"/>
+      <c r="E641" s="25"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="D642" s="19"/>
+      <c r="E642" s="25"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="D643" s="19"/>
+      <c r="E643" s="25"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="D644" s="19"/>
+      <c r="E644" s="25"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="D645" s="19"/>
+      <c r="E645" s="25"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="D646" s="19"/>
+      <c r="E646" s="25"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="D647" s="19"/>
+      <c r="E647" s="25"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="D648" s="19"/>
+      <c r="E648" s="25"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="D649" s="19"/>
+      <c r="E649" s="25"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="D650" s="19"/>
+      <c r="E650" s="25"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="D651" s="19"/>
+      <c r="E651" s="25"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="D652" s="19"/>
+      <c r="E652" s="25"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="D653" s="19"/>
+      <c r="E653" s="25"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="D654" s="19"/>
+      <c r="E654" s="25"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="D655" s="19"/>
+      <c r="E655" s="25"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="D656" s="19"/>
+      <c r="E656" s="25"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="D657" s="19"/>
+      <c r="E657" s="25"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="D658" s="19"/>
+      <c r="E658" s="25"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="D659" s="19"/>
+      <c r="E659" s="25"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="D660" s="19"/>
+      <c r="E660" s="25"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="D661" s="19"/>
+      <c r="E661" s="25"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="D662" s="19"/>
+      <c r="E662" s="25"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="D663" s="19"/>
+      <c r="E663" s="25"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="D664" s="19"/>
+      <c r="E664" s="25"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="D665" s="19"/>
+      <c r="E665" s="25"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="D666" s="19"/>
+      <c r="E666" s="25"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="D667" s="19"/>
+      <c r="E667" s="25"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="D668" s="19"/>
+      <c r="E668" s="25"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="D669" s="19"/>
+      <c r="E669" s="25"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="D670" s="19"/>
+      <c r="E670" s="25"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="D671" s="19"/>
+      <c r="E671" s="25"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="D672" s="19"/>
+      <c r="E672" s="25"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="D673" s="19"/>
+      <c r="E673" s="25"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="D674" s="19"/>
+      <c r="E674" s="25"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="D675" s="19"/>
+      <c r="E675" s="25"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="D676" s="19"/>
+      <c r="E676" s="25"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="D677" s="19"/>
+      <c r="E677" s="25"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="D678" s="19"/>
+      <c r="E678" s="25"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="D679" s="19"/>
+      <c r="E679" s="25"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="D680" s="19"/>
+      <c r="E680" s="25"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="D681" s="19"/>
+      <c r="E681" s="25"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="D682" s="19"/>
+      <c r="E682" s="25"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="D683" s="19"/>
+      <c r="E683" s="25"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="D684" s="19"/>
+      <c r="E684" s="25"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="D685" s="19"/>
+      <c r="E685" s="25"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="D686" s="19"/>
+      <c r="E686" s="25"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="D687" s="19"/>
+      <c r="E687" s="25"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="D688" s="19"/>
+      <c r="E688" s="25"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="D689" s="19"/>
+      <c r="E689" s="25"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="D690" s="19"/>
+      <c r="E690" s="25"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="D691" s="19"/>
+      <c r="E691" s="25"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="D692" s="19"/>
+      <c r="E692" s="25"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="D693" s="19"/>
+      <c r="E693" s="25"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="D694" s="19"/>
+      <c r="E694" s="25"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="D695" s="19"/>
+      <c r="E695" s="25"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="D696" s="19"/>
+      <c r="E696" s="25"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="D697" s="19"/>
+      <c r="E697" s="25"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="D698" s="19"/>
+      <c r="E698" s="25"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="D699" s="19"/>
+      <c r="E699" s="25"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="D700" s="19"/>
+      <c r="E700" s="25"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="D701" s="19"/>
+      <c r="E701" s="25"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="D702" s="19"/>
+      <c r="E702" s="25"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="D703" s="19"/>
+      <c r="E703" s="25"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="D704" s="19"/>
+      <c r="E704" s="25"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="D705" s="19"/>
+      <c r="E705" s="25"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="D706" s="19"/>
+      <c r="E706" s="25"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="D707" s="19"/>
+      <c r="E707" s="25"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="D708" s="19"/>
+      <c r="E708" s="25"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="D709" s="19"/>
+      <c r="E709" s="25"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="D710" s="19"/>
+      <c r="E710" s="25"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="D711" s="19"/>
+      <c r="E711" s="25"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="D712" s="19"/>
+      <c r="E712" s="25"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="D713" s="19"/>
+      <c r="E713" s="25"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="D714" s="19"/>
+      <c r="E714" s="25"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="D715" s="19"/>
+      <c r="E715" s="25"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="D716" s="19"/>
+      <c r="E716" s="25"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="D717" s="19"/>
+      <c r="E717" s="25"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="D718" s="19"/>
+      <c r="E718" s="25"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="D719" s="19"/>
+      <c r="E719" s="25"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="D720" s="19"/>
+      <c r="E720" s="25"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="D721" s="19"/>
+      <c r="E721" s="25"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="D722" s="19"/>
+      <c r="E722" s="25"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="D723" s="19"/>
+      <c r="E723" s="25"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="D724" s="19"/>
+      <c r="E724" s="25"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="D725" s="19"/>
+      <c r="E725" s="25"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="D726" s="19"/>
+      <c r="E726" s="25"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="D727" s="19"/>
+      <c r="E727" s="25"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="D728" s="19"/>
+      <c r="E728" s="25"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="D729" s="19"/>
+      <c r="E729" s="25"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="D730" s="19"/>
+      <c r="E730" s="25"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="D731" s="19"/>
+      <c r="E731" s="25"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="D732" s="19"/>
+      <c r="E732" s="25"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="D733" s="19"/>
+      <c r="E733" s="25"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="D734" s="19"/>
+      <c r="E734" s="25"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="D735" s="19"/>
+      <c r="E735" s="25"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="D736" s="19"/>
+      <c r="E736" s="25"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="D737" s="19"/>
+      <c r="E737" s="25"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="D738" s="19"/>
+      <c r="E738" s="25"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="D739" s="19"/>
+      <c r="E739" s="25"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="D740" s="19"/>
+      <c r="E740" s="25"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="D741" s="19"/>
+      <c r="E741" s="25"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="D742" s="19"/>
+      <c r="E742" s="25"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="D743" s="19"/>
+      <c r="E743" s="25"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="D744" s="19"/>
+      <c r="E744" s="25"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="D745" s="19"/>
+      <c r="E745" s="25"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="D746" s="19"/>
+      <c r="E746" s="25"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="D747" s="19"/>
+      <c r="E747" s="25"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="D748" s="19"/>
+      <c r="E748" s="25"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="D749" s="19"/>
+      <c r="E749" s="25"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="D750" s="19"/>
+      <c r="E750" s="25"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="D751" s="19"/>
+      <c r="E751" s="25"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="D752" s="19"/>
+      <c r="E752" s="25"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="D753" s="19"/>
+      <c r="E753" s="25"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="D754" s="19"/>
+      <c r="E754" s="25"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="D755" s="19"/>
+      <c r="E755" s="25"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="D756" s="19"/>
+      <c r="E756" s="25"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="D757" s="19"/>
+      <c r="E757" s="25"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="D758" s="19"/>
+      <c r="E758" s="25"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="D759" s="19"/>
+      <c r="E759" s="25"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="D760" s="19"/>
+      <c r="E760" s="25"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="D761" s="19"/>
+      <c r="E761" s="25"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="D762" s="19"/>
+      <c r="E762" s="25"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="D763" s="19"/>
+      <c r="E763" s="25"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="D764" s="19"/>
+      <c r="E764" s="25"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="D765" s="19"/>
+      <c r="E765" s="25"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="D766" s="19"/>
+      <c r="E766" s="25"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="D767" s="19"/>
+      <c r="E767" s="25"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="D768" s="19"/>
+      <c r="E768" s="25"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="D769" s="19"/>
+      <c r="E769" s="25"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="D770" s="19"/>
+      <c r="E770" s="25"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="D771" s="19"/>
+      <c r="E771" s="25"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="D772" s="19"/>
+      <c r="E772" s="25"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="D773" s="19"/>
+      <c r="E773" s="25"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="D774" s="19"/>
+      <c r="E774" s="25"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="D775" s="19"/>
+      <c r="E775" s="25"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="D776" s="19"/>
+      <c r="E776" s="25"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="D777" s="19"/>
+      <c r="E777" s="25"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="D778" s="19"/>
+      <c r="E778" s="25"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="D779" s="19"/>
+      <c r="E779" s="25"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="D780" s="19"/>
+      <c r="E780" s="25"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="D781" s="19"/>
+      <c r="E781" s="25"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="D782" s="19"/>
+      <c r="E782" s="25"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="D783" s="19"/>
+      <c r="E783" s="25"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="D784" s="19"/>
+      <c r="E784" s="25"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="D785" s="19"/>
+      <c r="E785" s="25"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="D786" s="19"/>
+      <c r="E786" s="25"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="D787" s="19"/>
+      <c r="E787" s="25"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="D788" s="19"/>
+      <c r="E788" s="25"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="D789" s="19"/>
+      <c r="E789" s="25"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="D790" s="19"/>
+      <c r="E790" s="25"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="D791" s="19"/>
+      <c r="E791" s="25"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="D792" s="19"/>
+      <c r="E792" s="25"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="D793" s="19"/>
+      <c r="E793" s="25"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="D794" s="19"/>
+      <c r="E794" s="25"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="D795" s="19"/>
+      <c r="E795" s="25"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="D796" s="19"/>
+      <c r="E796" s="25"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="D797" s="19"/>
+      <c r="E797" s="25"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="D798" s="19"/>
+      <c r="E798" s="25"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="D799" s="19"/>
+      <c r="E799" s="25"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="D800" s="19"/>
+      <c r="E800" s="25"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="D801" s="19"/>
+      <c r="E801" s="25"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="D802" s="19"/>
+      <c r="E802" s="25"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="D803" s="19"/>
+      <c r="E803" s="25"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="D804" s="19"/>
+      <c r="E804" s="25"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="D805" s="19"/>
+      <c r="E805" s="25"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="D806" s="19"/>
+      <c r="E806" s="25"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="D807" s="19"/>
+      <c r="E807" s="25"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="D808" s="19"/>
+      <c r="E808" s="25"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="D809" s="19"/>
+      <c r="E809" s="25"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="D810" s="19"/>
+      <c r="E810" s="25"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="D811" s="19"/>
+      <c r="E811" s="25"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="D812" s="19"/>
+      <c r="E812" s="25"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="D813" s="19"/>
+      <c r="E813" s="25"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="D814" s="19"/>
+      <c r="E814" s="25"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="D815" s="19"/>
+      <c r="E815" s="25"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="D816" s="19"/>
+      <c r="E816" s="25"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="D817" s="19"/>
+      <c r="E817" s="25"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="D818" s="19"/>
+      <c r="E818" s="25"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="D819" s="19"/>
+      <c r="E819" s="25"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="D820" s="19"/>
+      <c r="E820" s="25"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="D821" s="19"/>
+      <c r="E821" s="25"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="D822" s="19"/>
+      <c r="E822" s="25"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="D823" s="19"/>
+      <c r="E823" s="25"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="D824" s="19"/>
+      <c r="E824" s="25"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="D825" s="19"/>
+      <c r="E825" s="25"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="D826" s="19"/>
+      <c r="E826" s="25"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="D827" s="19"/>
+      <c r="E827" s="25"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="D828" s="19"/>
+      <c r="E828" s="25"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="D829" s="19"/>
+      <c r="E829" s="25"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="D830" s="19"/>
+      <c r="E830" s="25"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="D831" s="19"/>
+      <c r="E831" s="25"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="D832" s="19"/>
+      <c r="E832" s="25"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="D833" s="19"/>
+      <c r="E833" s="25"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="D834" s="19"/>
+      <c r="E834" s="25"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="D835" s="19"/>
+      <c r="E835" s="25"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="D836" s="19"/>
+      <c r="E836" s="25"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="D837" s="19"/>
+      <c r="E837" s="25"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="D838" s="19"/>
+      <c r="E838" s="25"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="D839" s="19"/>
+      <c r="E839" s="25"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="D840" s="19"/>
+      <c r="E840" s="25"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="D841" s="19"/>
+      <c r="E841" s="25"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="D842" s="19"/>
+      <c r="E842" s="25"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="D843" s="19"/>
+      <c r="E843" s="25"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="D844" s="19"/>
+      <c r="E844" s="25"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="D845" s="19"/>
+      <c r="E845" s="25"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="D846" s="19"/>
+      <c r="E846" s="25"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="D847" s="19"/>
+      <c r="E847" s="25"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="D848" s="19"/>
+      <c r="E848" s="25"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="D849" s="19"/>
+      <c r="E849" s="25"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="D850" s="19"/>
+      <c r="E850" s="25"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="D851" s="19"/>
+      <c r="E851" s="25"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="D852" s="19"/>
+      <c r="E852" s="25"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="D853" s="19"/>
+      <c r="E853" s="25"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="D854" s="19"/>
+      <c r="E854" s="25"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="D855" s="19"/>
+      <c r="E855" s="25"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="D856" s="19"/>
+      <c r="E856" s="25"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="D857" s="19"/>
+      <c r="E857" s="25"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="D858" s="19"/>
+      <c r="E858" s="25"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="D859" s="19"/>
+      <c r="E859" s="25"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="D860" s="19"/>
+      <c r="E860" s="25"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="D861" s="19"/>
+      <c r="E861" s="25"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="D862" s="19"/>
+      <c r="E862" s="25"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="D863" s="19"/>
+      <c r="E863" s="25"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="D864" s="19"/>
+      <c r="E864" s="25"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="D865" s="19"/>
+      <c r="E865" s="25"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="D866" s="19"/>
+      <c r="E866" s="25"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="D867" s="19"/>
+      <c r="E867" s="25"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="D868" s="19"/>
+      <c r="E868" s="25"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="D869" s="19"/>
+      <c r="E869" s="25"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="D870" s="19"/>
+      <c r="E870" s="25"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="D871" s="19"/>
+      <c r="E871" s="25"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="D872" s="19"/>
+      <c r="E872" s="25"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="D873" s="19"/>
+      <c r="E873" s="25"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="D874" s="19"/>
+      <c r="E874" s="25"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="D875" s="19"/>
+      <c r="E875" s="25"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="D876" s="19"/>
+      <c r="E876" s="25"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="D877" s="19"/>
+      <c r="E877" s="25"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="D878" s="19"/>
+      <c r="E878" s="25"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="D879" s="19"/>
+      <c r="E879" s="25"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="D880" s="19"/>
+      <c r="E880" s="25"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="D881" s="19"/>
+      <c r="E881" s="25"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="D882" s="19"/>
+      <c r="E882" s="25"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="D883" s="19"/>
+      <c r="E883" s="25"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="D884" s="19"/>
+      <c r="E884" s="25"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="D885" s="19"/>
+      <c r="E885" s="25"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="D886" s="19"/>
+      <c r="E886" s="25"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="D887" s="19"/>
+      <c r="E887" s="25"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="D888" s="19"/>
+      <c r="E888" s="25"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="D889" s="19"/>
+      <c r="E889" s="25"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="D890" s="19"/>
+      <c r="E890" s="25"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="D891" s="19"/>
+      <c r="E891" s="25"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="D892" s="19"/>
+      <c r="E892" s="25"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="D893" s="19"/>
+      <c r="E893" s="25"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="D894" s="19"/>
+      <c r="E894" s="25"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="D895" s="19"/>
+      <c r="E895" s="25"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="D896" s="19"/>
+      <c r="E896" s="25"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="D897" s="19"/>
+      <c r="E897" s="25"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="D898" s="19"/>
+      <c r="E898" s="25"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="D899" s="19"/>
+      <c r="E899" s="25"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="D900" s="19"/>
+      <c r="E900" s="25"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="D901" s="19"/>
+      <c r="E901" s="25"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="D902" s="19"/>
+      <c r="E902" s="25"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="D903" s="19"/>
+      <c r="E903" s="25"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="D904" s="19"/>
+      <c r="E904" s="25"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="D905" s="19"/>
+      <c r="E905" s="25"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="D906" s="19"/>
+      <c r="E906" s="25"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="D907" s="19"/>
+      <c r="E907" s="25"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="D908" s="19"/>
+      <c r="E908" s="25"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="D909" s="19"/>
+      <c r="E909" s="25"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="D910" s="19"/>
+      <c r="E910" s="25"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="D911" s="19"/>
+      <c r="E911" s="25"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="D912" s="19"/>
+      <c r="E912" s="25"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="D913" s="19"/>
+      <c r="E913" s="25"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="D914" s="19"/>
+      <c r="E914" s="25"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="D915" s="19"/>
+      <c r="E915" s="25"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="D916" s="19"/>
+      <c r="E916" s="25"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="D917" s="19"/>
+      <c r="E917" s="25"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="D918" s="19"/>
+      <c r="E918" s="25"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="D919" s="19"/>
+      <c r="E919" s="25"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="D920" s="19"/>
+      <c r="E920" s="25"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="D921" s="19"/>
+      <c r="E921" s="25"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="D922" s="19"/>
+      <c r="E922" s="25"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="D923" s="19"/>
+      <c r="E923" s="25"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="D924" s="19"/>
+      <c r="E924" s="25"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="D925" s="19"/>
+      <c r="E925" s="25"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="D926" s="19"/>
+      <c r="E926" s="25"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="D927" s="19"/>
+      <c r="E927" s="25"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="D928" s="19"/>
+      <c r="E928" s="25"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="D929" s="19"/>
+      <c r="E929" s="25"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="D930" s="19"/>
+      <c r="E930" s="25"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="D931" s="19"/>
+      <c r="E931" s="25"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="D932" s="19"/>
+      <c r="E932" s="25"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="D933" s="19"/>
+      <c r="E933" s="25"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="D934" s="19"/>
+      <c r="E934" s="25"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="D935" s="19"/>
+      <c r="E935" s="25"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="D936" s="19"/>
+      <c r="E936" s="25"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="D937" s="19"/>
+      <c r="E937" s="25"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="D938" s="19"/>
+      <c r="E938" s="25"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="D939" s="19"/>
+      <c r="E939" s="25"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="D940" s="19"/>
+      <c r="E940" s="25"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="D941" s="19"/>
+      <c r="E941" s="25"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="D942" s="19"/>
+      <c r="E942" s="25"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="D943" s="19"/>
+      <c r="E943" s="25"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="D944" s="19"/>
+      <c r="E944" s="25"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="D945" s="19"/>
+      <c r="E945" s="25"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="D946" s="19"/>
+      <c r="E946" s="25"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="D947" s="19"/>
+      <c r="E947" s="25"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="D948" s="19"/>
+      <c r="E948" s="25"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="D949" s="19"/>
+      <c r="E949" s="25"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="D950" s="19"/>
+      <c r="E950" s="25"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="D951" s="19"/>
+      <c r="E951" s="25"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="D952" s="19"/>
+      <c r="E952" s="25"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="D953" s="19"/>
+      <c r="E953" s="25"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="D954" s="19"/>
+      <c r="E954" s="25"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="D955" s="19"/>
+      <c r="E955" s="25"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="D956" s="19"/>
+      <c r="E956" s="25"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="D957" s="19"/>
+      <c r="E957" s="25"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="D958" s="19"/>
+      <c r="E958" s="25"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="D959" s="19"/>
+      <c r="E959" s="25"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="D960" s="19"/>
+      <c r="E960" s="25"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="D961" s="19"/>
+      <c r="E961" s="25"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="D962" s="19"/>
+      <c r="E962" s="25"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="D963" s="19"/>
+      <c r="E963" s="25"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="D964" s="19"/>
+      <c r="E964" s="25"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="D965" s="19"/>
+      <c r="E965" s="25"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="D966" s="19"/>
+      <c r="E966" s="25"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="D967" s="19"/>
+      <c r="E967" s="25"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="D968" s="19"/>
+      <c r="E968" s="25"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="D969" s="19"/>
+      <c r="E969" s="25"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="D970" s="19"/>
+      <c r="E970" s="25"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="D971" s="19"/>
+      <c r="E971" s="25"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="D972" s="19"/>
+      <c r="E972" s="25"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="D973" s="19"/>
+      <c r="E973" s="25"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="D974" s="19"/>
+      <c r="E974" s="25"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="D975" s="19"/>
+      <c r="E975" s="25"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="D976" s="19"/>
+      <c r="E976" s="25"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="D977" s="19"/>
+      <c r="E977" s="25"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="D978" s="19"/>
+      <c r="E978" s="25"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="D979" s="19"/>
+      <c r="E979" s="25"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="D980" s="19"/>
+      <c r="E980" s="25"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="D981" s="19"/>
+      <c r="E981" s="25"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="D982" s="19"/>
+      <c r="E982" s="25"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="D983" s="19"/>
+      <c r="E983" s="25"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="D984" s="19"/>
+      <c r="E984" s="25"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="D985" s="19"/>
+      <c r="E985" s="25"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="D986" s="19"/>
+      <c r="E986" s="25"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="D987" s="19"/>
+      <c r="E987" s="25"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="D988" s="19"/>
+      <c r="E988" s="25"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="D989" s="19"/>
+      <c r="E989" s="25"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="D990" s="19"/>
+      <c r="E990" s="25"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="D991" s="19"/>
+      <c r="E991" s="25"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="19"/>
+      <c r="E992" s="25"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="D993" s="19"/>
+      <c r="E993" s="25"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="D994" s="19"/>
+      <c r="E994" s="25"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="D995" s="19"/>
+      <c r="E995" s="25"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="D996" s="19"/>
+      <c r="E996" s="25"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="D997" s="19"/>
+      <c r="E997" s="25"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="D998" s="19"/>
+      <c r="E998" s="25"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="D999" s="19"/>
+      <c r="E999" s="25"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="D1000" s="19"/>
+      <c r="E1000" s="25"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -5333,1031 +5571,1045 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="A1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="F1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="G1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="17" t="s">
+      <c r="M1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="P1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="Q1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="17" t="s">
+      <c r="R1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="17" t="s">
+      <c r="U1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="W1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" s="17" t="s">
+      <c r="X1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF1" s="17" t="s">
+      <c r="Y1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="Z1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AA1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AJ1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AB1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AC1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AD1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AE1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AF1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AG1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AH1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AJ1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AL1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AU1" s="17" t="s">
+      <c r="AM1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AO1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="AW1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY1" s="17" t="s">
+      <c r="AQ1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AZ1" s="17" t="s">
-        <v>102</v>
+      <c r="AT1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ1" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
+      <c r="A2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="21"/>
+      <c r="A3" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="21"/>
-      <c r="AZ4" s="21"/>
+      <c r="A4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="22"/>
+      <c r="A5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="30"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30"/>
+      <c r="AX5" s="30"/>
+      <c r="AY5" s="30"/>
+      <c r="AZ5" s="30"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="31"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="31"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="31"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="31"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="31"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="31"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="31"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="31"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="31"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="31"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23"/>
+      <c r="A16" s="31"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="31"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="31"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="31"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="31"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="31"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="31"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="31"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="31"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="31"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="31"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="31"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="31"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="31"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="31"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="31"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="31"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="31"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="31"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="31"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="31"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="31"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="31"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="31"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="31"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="31"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="31"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="31"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="31"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="31"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="31"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="31"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="31"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="31"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="31"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="31"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="31"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="31"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="31"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="23"/>
+      <c r="A57" s="31"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="31"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="31"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="31"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="31"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="31"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="31"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="31"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="31"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="31"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="31"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="31"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="31"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="31"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="31"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="31"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="31"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="31"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="31"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="31"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="31"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="31"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="31"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="31"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="31"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="31"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="31"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="31"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="31"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="31"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="31"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="31"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="31"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="31"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="31"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="31"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="31"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="31"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="31"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="31"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="31"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="31"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="23"/>
+      <c r="A99" s="31"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="31"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="31"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="31"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="31"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="31"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="23"/>
+      <c r="A105" s="31"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="31"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="23"/>
+      <c r="A107" s="31"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="31"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="23"/>
+      <c r="A109" s="31"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="31"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="31"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="23"/>
+      <c r="A112" s="31"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="23"/>
+      <c r="A113" s="31"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="31"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="23"/>
+      <c r="A115" s="31"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="31"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="23"/>
+      <c r="A117" s="31"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="23"/>
+      <c r="A118" s="31"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="23"/>
+      <c r="A119" s="31"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="23"/>
+      <c r="A120" s="31"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="23"/>
+      <c r="A121" s="31"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="31"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="31"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="31"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="31"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="31"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="31"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="23"/>
+      <c r="A128" s="31"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="23"/>
+      <c r="A129" s="31"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="31"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23"/>
+      <c r="A131" s="31"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="31"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="31"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="31"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="23"/>
+      <c r="A135" s="31"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="31"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="31"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="31"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="31"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="31"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="31"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="31"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="23"/>
+      <c r="A143" s="31"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="31"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="23"/>
+      <c r="A145" s="31"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="31"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="23"/>
+      <c r="A147" s="31"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="31"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="23"/>
+      <c r="A149" s="31"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="31"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="23"/>
+      <c r="A151" s="31"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="31"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="23"/>
+      <c r="A153" s="31"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="31"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="23"/>
+      <c r="A155" s="31"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="31"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="23"/>
+      <c r="A157" s="31"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="31"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="23"/>
+      <c r="A159" s="31"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="31"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="23"/>
+      <c r="A161" s="31"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="31"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="23"/>
+      <c r="A163" s="31"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="31"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="23"/>
+      <c r="A165" s="31"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="31"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="23"/>
+      <c r="A167" s="31"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="31"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="23"/>
+      <c r="A169" s="31"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="31"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="23"/>
+      <c r="A171" s="31"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="31"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="23"/>
+      <c r="A173" s="31"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="31"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="23"/>
+      <c r="A175" s="31"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="31"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="23"/>
+      <c r="A177" s="31"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="31"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="23"/>
+      <c r="A179" s="31"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="31"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="23"/>
+      <c r="A181" s="31"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="31"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="23"/>
+      <c r="A183" s="31"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="31"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="23"/>
+      <c r="A185" s="31"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="31"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="23"/>
+      <c r="A187" s="31"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="31"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="23"/>
+      <c r="A189" s="31"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="31"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="23"/>
+      <c r="A191" s="31"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="31"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="31"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="31"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="31"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="31"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="31"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="31"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="31"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="31"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="31"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="31"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="31"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="31"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="31"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="31"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="31"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="31"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="31"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="31"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="31"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="31"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="31"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="31"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="31"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="31"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="31"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="31"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="31"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="31"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RO.UTI.xlsx
+++ b/TNR_JDD/JDD.RO.UTI.xlsx
@@ -10,15 +10,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mibh9StZmn3AmtIRdousp5Dm4Q0Rg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="veZPkeAZhNw2Wflgu1YunhB9uq9jlTnntqY+DllN/xo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout rubrique UTI.ID_NUMCORP </t>
+  </si>
+  <si>
+    <t>X3i</t>
+  </si>
+  <si>
+    <t>V13.0.2</t>
   </si>
   <si>
     <t>Onglet</t>
@@ -369,6 +381,15 @@
   </si>
   <si>
     <t>Trace date mise à jour</t>
+  </si>
+  <si>
+    <t>ID_NUMCORP</t>
+  </si>
+  <si>
+    <t>Identifiant interne éditeur de la donnée packagée</t>
+  </si>
+  <si>
+    <t>NULL par défaut</t>
   </si>
   <si>
     <t>PREREQUIS</t>
@@ -390,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -414,6 +435,10 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -530,12 +555,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -556,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -573,16 +609,25 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -591,58 +636,67 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="10" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="3" fillId="10" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -908,11 +962,21 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
@@ -2014,3538 +2078,3551 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.5"/>
-    <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="4" width="38.13"/>
+    <col customWidth="1" min="2" max="2" width="37.88"/>
+    <col customWidth="1" min="3" max="3" width="20.63"/>
+    <col customWidth="1" min="4" max="4" width="38.13"/>
     <col customWidth="1" min="5" max="5" width="10.63"/>
     <col customWidth="1" min="6" max="6" width="11.88"/>
     <col customWidth="1" min="7" max="7" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="6">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="9">
         <v>1020.0</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="B4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="22" t="s">
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" ht="12.75" customHeight="1">
+      <c r="A43" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" ht="12.75" customHeight="1">
+      <c r="A44" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="22" t="s">
+      <c r="E44" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1">
+      <c r="A45" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="E45" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
+      <c r="A46" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1">
+      <c r="A47" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" ht="12.75" customHeight="1">
+      <c r="A48" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1">
+      <c r="A49" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="22" t="s">
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" ht="12.75" customHeight="1">
+      <c r="A50" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="A51" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="A52" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="A53" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="25"/>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="25"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="25"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="25"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="25"/>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="25"/>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="25"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="25"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="25"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="25"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="25"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="25"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="25"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>24</v>
+      <c r="D53" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>24</v>
+      <c r="A54" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="E55" s="25"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="E56" s="25"/>
-    </row>
+      <c r="A55" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1"/>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="E57" s="25"/>
+      <c r="E57" s="28"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="E58" s="25"/>
+      <c r="E58" s="28"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="E59" s="25"/>
+      <c r="E59" s="28"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="E60" s="25"/>
+      <c r="E60" s="28"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="E61" s="25"/>
+      <c r="E61" s="28"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="E62" s="25"/>
+      <c r="E62" s="28"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="E63" s="25"/>
+      <c r="E63" s="28"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="E64" s="25"/>
+      <c r="E64" s="28"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="E65" s="25"/>
+      <c r="E65" s="28"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="E66" s="25"/>
+      <c r="E66" s="28"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="E67" s="25"/>
+      <c r="E67" s="28"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="E68" s="25"/>
+      <c r="E68" s="28"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="E69" s="25"/>
+      <c r="E69" s="28"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="E70" s="25"/>
+      <c r="E70" s="28"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="E71" s="25"/>
+      <c r="E71" s="28"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="E72" s="25"/>
+      <c r="E72" s="28"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="E73" s="25"/>
+      <c r="E73" s="28"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="E74" s="25"/>
+      <c r="E74" s="28"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="E75" s="25"/>
+      <c r="E75" s="28"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="E76" s="25"/>
+      <c r="E76" s="28"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="E77" s="25"/>
+      <c r="E77" s="28"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="E78" s="25"/>
+      <c r="E78" s="28"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="E79" s="25"/>
+      <c r="E79" s="28"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="E80" s="25"/>
+      <c r="E80" s="28"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="E81" s="25"/>
+      <c r="E81" s="28"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="E82" s="25"/>
+      <c r="E82" s="28"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="E83" s="25"/>
+      <c r="E83" s="28"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="E84" s="25"/>
+      <c r="E84" s="28"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="E85" s="25"/>
+      <c r="E85" s="28"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="E86" s="25"/>
+      <c r="E86" s="28"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="E87" s="25"/>
+      <c r="E87" s="28"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="E88" s="25"/>
+      <c r="E88" s="28"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="E89" s="25"/>
+      <c r="E89" s="28"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="E90" s="25"/>
+      <c r="E90" s="28"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="E91" s="25"/>
+      <c r="E91" s="28"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="E92" s="25"/>
+      <c r="E92" s="28"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="E93" s="25"/>
+      <c r="E93" s="28"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="E94" s="25"/>
+      <c r="E94" s="28"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="E95" s="25"/>
+      <c r="E95" s="28"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="E96" s="25"/>
+      <c r="E96" s="28"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="E97" s="25"/>
+      <c r="E97" s="28"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="E98" s="25"/>
+      <c r="E98" s="28"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="E99" s="25"/>
+      <c r="E99" s="28"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="E100" s="25"/>
+      <c r="E100" s="28"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="E101" s="25"/>
+      <c r="E101" s="28"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="E102" s="25"/>
+      <c r="E102" s="28"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="E103" s="25"/>
+      <c r="E103" s="28"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="E104" s="25"/>
+      <c r="E104" s="28"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="E105" s="25"/>
+      <c r="E105" s="28"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="E106" s="25"/>
+      <c r="E106" s="28"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="E107" s="25"/>
+      <c r="E107" s="28"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="E108" s="25"/>
+      <c r="E108" s="28"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="E109" s="25"/>
+      <c r="E109" s="28"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="E110" s="25"/>
+      <c r="E110" s="28"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="E111" s="25"/>
+      <c r="E111" s="28"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="E112" s="25"/>
+      <c r="E112" s="28"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="E113" s="25"/>
+      <c r="E113" s="28"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="E114" s="25"/>
+      <c r="E114" s="28"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="E115" s="25"/>
+      <c r="E115" s="28"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="E116" s="25"/>
+      <c r="E116" s="28"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="E117" s="25"/>
+      <c r="E117" s="28"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="E118" s="25"/>
+      <c r="E118" s="28"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="E119" s="25"/>
+      <c r="E119" s="28"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="E120" s="25"/>
+      <c r="E120" s="28"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="E121" s="25"/>
+      <c r="E121" s="28"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="E122" s="25"/>
+      <c r="E122" s="28"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="E123" s="25"/>
+      <c r="E123" s="28"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="E124" s="25"/>
+      <c r="E124" s="28"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="E125" s="25"/>
+      <c r="E125" s="28"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="E126" s="25"/>
+      <c r="E126" s="28"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="E127" s="25"/>
+      <c r="E127" s="28"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="E128" s="25"/>
+      <c r="E128" s="28"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="E129" s="25"/>
+      <c r="E129" s="28"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="E130" s="25"/>
+      <c r="E130" s="28"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="E131" s="25"/>
+      <c r="E131" s="28"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="E132" s="25"/>
+      <c r="E132" s="28"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="E133" s="25"/>
+      <c r="E133" s="28"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="E134" s="25"/>
+      <c r="E134" s="28"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="E135" s="25"/>
+      <c r="E135" s="28"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="E136" s="25"/>
+      <c r="E136" s="28"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="E137" s="25"/>
+      <c r="E137" s="28"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="E138" s="25"/>
+      <c r="E138" s="28"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="E139" s="25"/>
+      <c r="E139" s="28"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="E140" s="25"/>
+      <c r="E140" s="28"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="E141" s="25"/>
+      <c r="E141" s="28"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="E142" s="25"/>
+      <c r="E142" s="28"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="E143" s="25"/>
+      <c r="E143" s="28"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="E144" s="25"/>
+      <c r="E144" s="28"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="E145" s="25"/>
+      <c r="E145" s="28"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="E146" s="25"/>
+      <c r="E146" s="28"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="E147" s="25"/>
+      <c r="E147" s="28"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="E148" s="25"/>
+      <c r="E148" s="28"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="E149" s="25"/>
+      <c r="E149" s="28"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="E150" s="25"/>
+      <c r="E150" s="28"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="E151" s="25"/>
+      <c r="E151" s="28"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="E152" s="25"/>
+      <c r="E152" s="28"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="E153" s="25"/>
+      <c r="E153" s="28"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="E154" s="25"/>
+      <c r="E154" s="28"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="E155" s="25"/>
+      <c r="E155" s="28"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="E156" s="25"/>
+      <c r="E156" s="28"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="E157" s="25"/>
+      <c r="E157" s="28"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="E158" s="25"/>
+      <c r="E158" s="28"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="E159" s="25"/>
+      <c r="E159" s="28"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="E160" s="25"/>
+      <c r="E160" s="28"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="E161" s="25"/>
+      <c r="E161" s="28"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="E162" s="25"/>
+      <c r="E162" s="28"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="E163" s="25"/>
+      <c r="E163" s="28"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="E164" s="25"/>
+      <c r="E164" s="28"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="E165" s="25"/>
+      <c r="E165" s="28"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="E166" s="25"/>
+      <c r="E166" s="28"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="E167" s="25"/>
+      <c r="E167" s="28"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="E168" s="25"/>
+      <c r="E168" s="28"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="E169" s="25"/>
+      <c r="E169" s="28"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="E170" s="25"/>
+      <c r="E170" s="28"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="E171" s="25"/>
+      <c r="E171" s="28"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="E172" s="25"/>
+      <c r="E172" s="28"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="E173" s="25"/>
+      <c r="E173" s="28"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="E174" s="25"/>
+      <c r="E174" s="28"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="E175" s="25"/>
+      <c r="E175" s="28"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="E176" s="25"/>
+      <c r="E176" s="28"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="E177" s="25"/>
+      <c r="E177" s="28"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="E178" s="25"/>
+      <c r="E178" s="28"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="E179" s="25"/>
+      <c r="E179" s="28"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="E180" s="25"/>
+      <c r="E180" s="28"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="E181" s="25"/>
+      <c r="E181" s="28"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="E182" s="25"/>
+      <c r="E182" s="28"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="E183" s="25"/>
+      <c r="E183" s="28"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="E184" s="25"/>
+      <c r="E184" s="28"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="E185" s="25"/>
+      <c r="E185" s="28"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="E186" s="25"/>
+      <c r="E186" s="28"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="E187" s="25"/>
+      <c r="E187" s="28"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="E188" s="25"/>
+      <c r="E188" s="28"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="E189" s="25"/>
+      <c r="E189" s="28"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="E190" s="25"/>
+      <c r="E190" s="28"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="E191" s="25"/>
+      <c r="E191" s="28"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="E192" s="25"/>
+      <c r="E192" s="28"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="E193" s="25"/>
+      <c r="E193" s="28"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="E194" s="25"/>
+      <c r="E194" s="28"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="E195" s="25"/>
+      <c r="E195" s="28"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="E196" s="25"/>
+      <c r="E196" s="28"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="E197" s="25"/>
+      <c r="E197" s="28"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="E198" s="25"/>
+      <c r="E198" s="28"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="E199" s="25"/>
+      <c r="E199" s="28"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="E200" s="25"/>
+      <c r="E200" s="28"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="E201" s="25"/>
+      <c r="E201" s="28"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="E202" s="25"/>
+      <c r="E202" s="28"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="E203" s="25"/>
+      <c r="E203" s="28"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="E204" s="25"/>
+      <c r="E204" s="28"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="E205" s="25"/>
+      <c r="E205" s="28"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
-      <c r="E206" s="25"/>
+      <c r="E206" s="28"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
-      <c r="E207" s="25"/>
+      <c r="E207" s="28"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
-      <c r="E208" s="25"/>
+      <c r="E208" s="28"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
-      <c r="E209" s="25"/>
+      <c r="E209" s="28"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
-      <c r="E210" s="25"/>
+      <c r="E210" s="28"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
-      <c r="E211" s="25"/>
+      <c r="E211" s="28"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
-      <c r="E212" s="25"/>
+      <c r="E212" s="28"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
-      <c r="E213" s="25"/>
+      <c r="E213" s="28"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
-      <c r="E214" s="25"/>
+      <c r="E214" s="28"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
-      <c r="E215" s="25"/>
+      <c r="E215" s="28"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="E216" s="25"/>
+      <c r="E216" s="28"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="E217" s="25"/>
+      <c r="E217" s="28"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
-      <c r="E218" s="25"/>
+      <c r="E218" s="28"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
-      <c r="E219" s="25"/>
+      <c r="E219" s="28"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
-      <c r="E220" s="25"/>
+      <c r="E220" s="28"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="E221" s="25"/>
+      <c r="E221" s="28"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="E222" s="25"/>
+      <c r="E222" s="28"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="E223" s="25"/>
+      <c r="E223" s="28"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="E224" s="25"/>
+      <c r="E224" s="28"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
-      <c r="E225" s="25"/>
+      <c r="E225" s="28"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
-      <c r="E226" s="25"/>
+      <c r="E226" s="28"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
-      <c r="E227" s="25"/>
+      <c r="E227" s="28"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
-      <c r="E228" s="25"/>
+      <c r="E228" s="28"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
-      <c r="E229" s="25"/>
+      <c r="E229" s="28"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
-      <c r="E230" s="25"/>
+      <c r="E230" s="28"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
-      <c r="E231" s="25"/>
+      <c r="E231" s="28"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
-      <c r="E232" s="25"/>
+      <c r="E232" s="28"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
-      <c r="E233" s="25"/>
+      <c r="E233" s="28"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="E234" s="25"/>
+      <c r="E234" s="28"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="E235" s="25"/>
+      <c r="E235" s="28"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="E236" s="25"/>
+      <c r="E236" s="28"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="E237" s="25"/>
+      <c r="E237" s="28"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="E238" s="25"/>
+      <c r="E238" s="28"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="E239" s="25"/>
+      <c r="E239" s="28"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="E240" s="25"/>
+      <c r="E240" s="28"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="E241" s="25"/>
+      <c r="E241" s="28"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="E242" s="25"/>
+      <c r="E242" s="28"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="E243" s="25"/>
+      <c r="E243" s="28"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="E244" s="25"/>
+      <c r="E244" s="28"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="E245" s="25"/>
+      <c r="E245" s="28"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="E246" s="25"/>
+      <c r="E246" s="28"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="E247" s="25"/>
+      <c r="E247" s="28"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="E248" s="25"/>
+      <c r="E248" s="28"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="E249" s="25"/>
+      <c r="E249" s="28"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="E250" s="25"/>
+      <c r="E250" s="28"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="E251" s="25"/>
+      <c r="E251" s="28"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="E252" s="25"/>
+      <c r="E252" s="28"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="E253" s="25"/>
+      <c r="E253" s="28"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
-      <c r="E254" s="25"/>
+      <c r="E254" s="28"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="E255" s="25"/>
+      <c r="E255" s="28"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="E256" s="25"/>
+      <c r="E256" s="28"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="E257" s="25"/>
+      <c r="E257" s="28"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="E258" s="25"/>
+      <c r="E258" s="28"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="E259" s="25"/>
+      <c r="E259" s="28"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="E260" s="25"/>
+      <c r="E260" s="28"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="E261" s="25"/>
+      <c r="E261" s="28"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="E262" s="25"/>
+      <c r="E262" s="28"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="E263" s="25"/>
+      <c r="E263" s="28"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="E264" s="25"/>
+      <c r="E264" s="28"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="E265" s="25"/>
+      <c r="E265" s="28"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="E266" s="25"/>
+      <c r="E266" s="28"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="E267" s="25"/>
+      <c r="E267" s="28"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="E268" s="25"/>
+      <c r="E268" s="28"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="E269" s="25"/>
+      <c r="E269" s="28"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="E270" s="25"/>
+      <c r="E270" s="28"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="E271" s="25"/>
+      <c r="E271" s="28"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="E272" s="25"/>
+      <c r="E272" s="28"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="E273" s="25"/>
+      <c r="E273" s="28"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="E274" s="25"/>
+      <c r="E274" s="28"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="E275" s="25"/>
+      <c r="E275" s="28"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="E276" s="25"/>
+      <c r="E276" s="28"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="E277" s="25"/>
+      <c r="E277" s="28"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="E278" s="25"/>
+      <c r="E278" s="28"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="E279" s="25"/>
+      <c r="E279" s="28"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="E280" s="25"/>
+      <c r="E280" s="28"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="E281" s="25"/>
+      <c r="E281" s="28"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="E282" s="25"/>
+      <c r="E282" s="28"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="E283" s="25"/>
+      <c r="E283" s="28"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="E284" s="25"/>
+      <c r="E284" s="28"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="E285" s="25"/>
+      <c r="E285" s="28"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="E286" s="25"/>
+      <c r="E286" s="28"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="E287" s="25"/>
+      <c r="E287" s="28"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="E288" s="25"/>
+      <c r="E288" s="28"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="E289" s="25"/>
+      <c r="E289" s="28"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="E290" s="25"/>
+      <c r="E290" s="28"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="E291" s="25"/>
+      <c r="E291" s="28"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="E292" s="25"/>
+      <c r="E292" s="28"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="E293" s="25"/>
+      <c r="E293" s="28"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="E294" s="25"/>
+      <c r="E294" s="28"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="E295" s="25"/>
+      <c r="E295" s="28"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="E296" s="25"/>
+      <c r="E296" s="28"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="E297" s="25"/>
+      <c r="E297" s="28"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="E298" s="25"/>
+      <c r="E298" s="28"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="E299" s="25"/>
+      <c r="E299" s="28"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="E300" s="25"/>
+      <c r="E300" s="28"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="E301" s="25"/>
+      <c r="E301" s="28"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="E302" s="25"/>
+      <c r="E302" s="28"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="E303" s="25"/>
+      <c r="E303" s="28"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="E304" s="25"/>
+      <c r="E304" s="28"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="E305" s="25"/>
+      <c r="E305" s="28"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="E306" s="25"/>
+      <c r="E306" s="28"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="E307" s="25"/>
+      <c r="E307" s="28"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="E308" s="25"/>
+      <c r="E308" s="28"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="E309" s="25"/>
+      <c r="E309" s="28"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="E310" s="25"/>
+      <c r="E310" s="28"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="E311" s="25"/>
+      <c r="E311" s="28"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="E312" s="25"/>
+      <c r="E312" s="28"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="E313" s="25"/>
+      <c r="E313" s="28"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="E314" s="25"/>
+      <c r="E314" s="28"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="E315" s="25"/>
+      <c r="E315" s="28"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="E316" s="25"/>
+      <c r="E316" s="28"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="E317" s="25"/>
+      <c r="E317" s="28"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="E318" s="25"/>
+      <c r="E318" s="28"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="E319" s="25"/>
+      <c r="E319" s="28"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="E320" s="25"/>
+      <c r="E320" s="28"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="E321" s="25"/>
+      <c r="E321" s="28"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="E322" s="25"/>
+      <c r="E322" s="28"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="E323" s="25"/>
+      <c r="E323" s="28"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="E324" s="25"/>
+      <c r="E324" s="28"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="E325" s="25"/>
+      <c r="E325" s="28"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="E326" s="25"/>
+      <c r="E326" s="28"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="E327" s="25"/>
+      <c r="E327" s="28"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="E328" s="25"/>
+      <c r="E328" s="28"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="E329" s="25"/>
+      <c r="E329" s="28"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="E330" s="25"/>
+      <c r="E330" s="28"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="E331" s="25"/>
+      <c r="E331" s="28"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="E332" s="25"/>
+      <c r="E332" s="28"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="E333" s="25"/>
+      <c r="E333" s="28"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="E334" s="25"/>
+      <c r="E334" s="28"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="E335" s="25"/>
+      <c r="E335" s="28"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="E336" s="25"/>
+      <c r="E336" s="28"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="E337" s="25"/>
+      <c r="E337" s="28"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="E338" s="25"/>
+      <c r="E338" s="28"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="E339" s="25"/>
+      <c r="E339" s="28"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="E340" s="25"/>
+      <c r="E340" s="28"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="E341" s="25"/>
+      <c r="E341" s="28"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="E342" s="25"/>
+      <c r="E342" s="28"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="E343" s="25"/>
+      <c r="E343" s="28"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="E344" s="25"/>
+      <c r="E344" s="28"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="E345" s="25"/>
+      <c r="E345" s="28"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="E346" s="25"/>
+      <c r="E346" s="28"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="E347" s="25"/>
+      <c r="E347" s="28"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="E348" s="25"/>
+      <c r="E348" s="28"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="E349" s="25"/>
+      <c r="E349" s="28"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="E350" s="25"/>
+      <c r="E350" s="28"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="E351" s="25"/>
+      <c r="E351" s="28"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="E352" s="25"/>
+      <c r="E352" s="28"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="E353" s="25"/>
+      <c r="E353" s="28"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="E354" s="25"/>
+      <c r="E354" s="28"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="E355" s="25"/>
+      <c r="E355" s="28"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="E356" s="25"/>
+      <c r="E356" s="28"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="E357" s="25"/>
+      <c r="E357" s="28"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="E358" s="25"/>
+      <c r="E358" s="28"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="E359" s="25"/>
+      <c r="E359" s="28"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="E360" s="25"/>
+      <c r="E360" s="28"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="E361" s="25"/>
+      <c r="E361" s="28"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="E362" s="25"/>
+      <c r="E362" s="28"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="E363" s="25"/>
+      <c r="E363" s="28"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="E364" s="25"/>
+      <c r="E364" s="28"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="E365" s="25"/>
+      <c r="E365" s="28"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="E366" s="25"/>
+      <c r="E366" s="28"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="E367" s="25"/>
+      <c r="E367" s="28"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="E368" s="25"/>
+      <c r="E368" s="28"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="E369" s="25"/>
+      <c r="E369" s="28"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="E370" s="25"/>
+      <c r="E370" s="28"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="E371" s="25"/>
+      <c r="E371" s="28"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="E372" s="25"/>
+      <c r="E372" s="28"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="E373" s="25"/>
+      <c r="E373" s="28"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="E374" s="25"/>
+      <c r="E374" s="28"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="E375" s="25"/>
+      <c r="E375" s="28"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="E376" s="25"/>
+      <c r="E376" s="28"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="E377" s="25"/>
+      <c r="E377" s="28"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="E378" s="25"/>
+      <c r="E378" s="28"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="E379" s="25"/>
+      <c r="E379" s="28"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="E380" s="25"/>
+      <c r="E380" s="28"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="E381" s="25"/>
+      <c r="E381" s="28"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="E382" s="25"/>
+      <c r="E382" s="28"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="E383" s="25"/>
+      <c r="E383" s="28"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="E384" s="25"/>
+      <c r="E384" s="28"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="E385" s="25"/>
+      <c r="E385" s="28"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="E386" s="25"/>
+      <c r="E386" s="28"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="E387" s="25"/>
+      <c r="E387" s="28"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="E388" s="25"/>
+      <c r="E388" s="28"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="E389" s="25"/>
+      <c r="E389" s="28"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="E390" s="25"/>
+      <c r="E390" s="28"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="E391" s="25"/>
+      <c r="E391" s="28"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="E392" s="25"/>
+      <c r="E392" s="28"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="E393" s="25"/>
+      <c r="E393" s="28"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="E394" s="25"/>
+      <c r="E394" s="28"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="E395" s="25"/>
+      <c r="E395" s="28"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="E396" s="25"/>
+      <c r="E396" s="28"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="E397" s="25"/>
+      <c r="E397" s="28"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="E398" s="25"/>
+      <c r="E398" s="28"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="E399" s="25"/>
+      <c r="E399" s="28"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="E400" s="25"/>
+      <c r="E400" s="28"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="E401" s="25"/>
+      <c r="E401" s="28"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="E402" s="25"/>
+      <c r="E402" s="28"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="E403" s="25"/>
+      <c r="E403" s="28"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="E404" s="25"/>
+      <c r="E404" s="28"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="E405" s="25"/>
+      <c r="E405" s="28"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="E406" s="25"/>
+      <c r="E406" s="28"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="E407" s="25"/>
+      <c r="E407" s="28"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="E408" s="25"/>
+      <c r="E408" s="28"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="E409" s="25"/>
+      <c r="E409" s="28"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="E410" s="25"/>
+      <c r="E410" s="28"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="E411" s="25"/>
+      <c r="E411" s="28"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="E412" s="25"/>
+      <c r="E412" s="28"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="E413" s="25"/>
+      <c r="E413" s="28"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="E414" s="25"/>
+      <c r="E414" s="28"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="E415" s="25"/>
+      <c r="E415" s="28"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="E416" s="25"/>
+      <c r="E416" s="28"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="E417" s="25"/>
+      <c r="E417" s="28"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="E418" s="25"/>
+      <c r="E418" s="28"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="E419" s="25"/>
+      <c r="E419" s="28"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="E420" s="25"/>
+      <c r="E420" s="28"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="E421" s="25"/>
+      <c r="E421" s="28"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="E422" s="25"/>
+      <c r="E422" s="28"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="E423" s="25"/>
+      <c r="E423" s="28"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="E424" s="25"/>
+      <c r="E424" s="28"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="E425" s="25"/>
+      <c r="E425" s="28"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="E426" s="25"/>
+      <c r="E426" s="28"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="E427" s="25"/>
+      <c r="E427" s="28"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="E428" s="25"/>
+      <c r="E428" s="28"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="E429" s="25"/>
+      <c r="E429" s="28"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="E430" s="25"/>
+      <c r="E430" s="28"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="E431" s="25"/>
+      <c r="E431" s="28"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="E432" s="25"/>
+      <c r="E432" s="28"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="E433" s="25"/>
+      <c r="E433" s="28"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="E434" s="25"/>
+      <c r="E434" s="28"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="E435" s="25"/>
+      <c r="E435" s="28"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="E436" s="25"/>
+      <c r="E436" s="28"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="E437" s="25"/>
+      <c r="E437" s="28"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="E438" s="25"/>
+      <c r="E438" s="28"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="E439" s="25"/>
+      <c r="E439" s="28"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="E440" s="25"/>
+      <c r="E440" s="28"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="E441" s="25"/>
+      <c r="E441" s="28"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="E442" s="25"/>
+      <c r="E442" s="28"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="E443" s="25"/>
+      <c r="E443" s="28"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="E444" s="25"/>
+      <c r="E444" s="28"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="E445" s="25"/>
+      <c r="E445" s="28"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="E446" s="25"/>
+      <c r="E446" s="28"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="E447" s="25"/>
+      <c r="E447" s="28"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="E448" s="25"/>
+      <c r="E448" s="28"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="E449" s="25"/>
+      <c r="E449" s="28"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="E450" s="25"/>
+      <c r="E450" s="28"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="E451" s="25"/>
+      <c r="E451" s="28"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="E452" s="25"/>
+      <c r="E452" s="28"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="E453" s="25"/>
+      <c r="E453" s="28"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="E454" s="25"/>
+      <c r="E454" s="28"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="E455" s="25"/>
+      <c r="E455" s="28"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="E456" s="25"/>
+      <c r="E456" s="28"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="E457" s="25"/>
+      <c r="E457" s="28"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="E458" s="25"/>
+      <c r="E458" s="28"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="E459" s="25"/>
+      <c r="E459" s="28"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="E460" s="25"/>
+      <c r="E460" s="28"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="E461" s="25"/>
+      <c r="E461" s="28"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="E462" s="25"/>
+      <c r="E462" s="28"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="E463" s="25"/>
+      <c r="E463" s="28"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="E464" s="25"/>
+      <c r="E464" s="28"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="E465" s="25"/>
+      <c r="E465" s="28"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="E466" s="25"/>
+      <c r="E466" s="28"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="E467" s="25"/>
+      <c r="E467" s="28"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="E468" s="25"/>
+      <c r="E468" s="28"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="E469" s="25"/>
+      <c r="E469" s="28"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="E470" s="25"/>
+      <c r="E470" s="28"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="E471" s="25"/>
+      <c r="E471" s="28"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="E472" s="25"/>
+      <c r="E472" s="28"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="E473" s="25"/>
+      <c r="E473" s="28"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="E474" s="25"/>
+      <c r="E474" s="28"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="E475" s="25"/>
+      <c r="E475" s="28"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="E476" s="25"/>
+      <c r="E476" s="28"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="E477" s="25"/>
+      <c r="E477" s="28"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="E478" s="25"/>
+      <c r="E478" s="28"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="E479" s="25"/>
+      <c r="E479" s="28"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="E480" s="25"/>
+      <c r="E480" s="28"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="E481" s="25"/>
+      <c r="E481" s="28"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="E482" s="25"/>
+      <c r="E482" s="28"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="E483" s="25"/>
+      <c r="E483" s="28"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="E484" s="25"/>
+      <c r="E484" s="28"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="E485" s="25"/>
+      <c r="E485" s="28"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="E486" s="25"/>
+      <c r="E486" s="28"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="E487" s="25"/>
+      <c r="E487" s="28"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="E488" s="25"/>
+      <c r="E488" s="28"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="E489" s="25"/>
+      <c r="E489" s="28"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="E490" s="25"/>
+      <c r="E490" s="28"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="E491" s="25"/>
+      <c r="E491" s="28"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="E492" s="25"/>
+      <c r="E492" s="28"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="E493" s="25"/>
+      <c r="E493" s="28"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="E494" s="25"/>
+      <c r="E494" s="28"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="E495" s="25"/>
+      <c r="E495" s="28"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="E496" s="25"/>
+      <c r="E496" s="28"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="E497" s="25"/>
+      <c r="E497" s="28"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="E498" s="25"/>
+      <c r="E498" s="28"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="E499" s="25"/>
+      <c r="E499" s="28"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="E500" s="25"/>
+      <c r="E500" s="28"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="E501" s="25"/>
+      <c r="E501" s="28"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="E502" s="25"/>
+      <c r="E502" s="28"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="E503" s="25"/>
+      <c r="E503" s="28"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="E504" s="25"/>
+      <c r="E504" s="28"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="E505" s="25"/>
+      <c r="E505" s="28"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="E506" s="25"/>
+      <c r="E506" s="28"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="E507" s="25"/>
+      <c r="E507" s="28"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="E508" s="25"/>
+      <c r="E508" s="28"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="E509" s="25"/>
+      <c r="E509" s="28"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="E510" s="25"/>
+      <c r="E510" s="28"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="E511" s="25"/>
+      <c r="E511" s="28"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="E512" s="25"/>
+      <c r="E512" s="28"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="E513" s="25"/>
+      <c r="E513" s="28"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="E514" s="25"/>
+      <c r="E514" s="28"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="E515" s="25"/>
+      <c r="E515" s="28"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="E516" s="25"/>
+      <c r="E516" s="28"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="E517" s="25"/>
+      <c r="E517" s="28"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="E518" s="25"/>
+      <c r="E518" s="28"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="E519" s="25"/>
+      <c r="E519" s="28"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="E520" s="25"/>
+      <c r="E520" s="28"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="E521" s="25"/>
+      <c r="E521" s="28"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="E522" s="25"/>
+      <c r="E522" s="28"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="E523" s="25"/>
+      <c r="E523" s="28"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="E524" s="25"/>
+      <c r="E524" s="28"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="E525" s="25"/>
+      <c r="E525" s="28"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="E526" s="25"/>
+      <c r="E526" s="28"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="E527" s="25"/>
+      <c r="E527" s="28"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="E528" s="25"/>
+      <c r="E528" s="28"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="E529" s="25"/>
+      <c r="E529" s="28"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="E530" s="25"/>
+      <c r="E530" s="28"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="E531" s="25"/>
+      <c r="E531" s="28"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="E532" s="25"/>
+      <c r="E532" s="28"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="E533" s="25"/>
+      <c r="E533" s="28"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="E534" s="25"/>
+      <c r="E534" s="28"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="E535" s="25"/>
+      <c r="E535" s="28"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="E536" s="25"/>
+      <c r="E536" s="28"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="E537" s="25"/>
+      <c r="E537" s="28"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="E538" s="25"/>
+      <c r="E538" s="28"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="E539" s="25"/>
+      <c r="E539" s="28"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="E540" s="25"/>
+      <c r="E540" s="28"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="E541" s="25"/>
+      <c r="E541" s="28"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="E542" s="25"/>
+      <c r="E542" s="28"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="E543" s="25"/>
+      <c r="E543" s="28"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="E544" s="25"/>
+      <c r="E544" s="28"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="E545" s="25"/>
+      <c r="E545" s="28"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="E546" s="25"/>
+      <c r="E546" s="28"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="E547" s="25"/>
+      <c r="E547" s="28"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="E548" s="25"/>
+      <c r="E548" s="28"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="E549" s="25"/>
+      <c r="E549" s="28"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="E550" s="25"/>
+      <c r="E550" s="28"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="E551" s="25"/>
+      <c r="E551" s="28"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="E552" s="25"/>
+      <c r="E552" s="28"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="E553" s="25"/>
+      <c r="E553" s="28"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="E554" s="25"/>
+      <c r="E554" s="28"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="E555" s="25"/>
+      <c r="E555" s="28"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="E556" s="25"/>
+      <c r="E556" s="28"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="E557" s="25"/>
+      <c r="E557" s="28"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="E558" s="25"/>
+      <c r="E558" s="28"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="E559" s="25"/>
+      <c r="E559" s="28"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="E560" s="25"/>
+      <c r="E560" s="28"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="E561" s="25"/>
+      <c r="E561" s="28"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="E562" s="25"/>
+      <c r="E562" s="28"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="E563" s="25"/>
+      <c r="E563" s="28"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="E564" s="25"/>
+      <c r="E564" s="28"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="E565" s="25"/>
+      <c r="E565" s="28"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="E566" s="25"/>
+      <c r="E566" s="28"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="E567" s="25"/>
+      <c r="E567" s="28"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="E568" s="25"/>
+      <c r="E568" s="28"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="E569" s="25"/>
+      <c r="E569" s="28"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="E570" s="25"/>
+      <c r="E570" s="28"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="E571" s="25"/>
+      <c r="E571" s="28"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="E572" s="25"/>
+      <c r="E572" s="28"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="E573" s="25"/>
+      <c r="E573" s="28"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="E574" s="25"/>
+      <c r="E574" s="28"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="E575" s="25"/>
+      <c r="E575" s="28"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="E576" s="25"/>
+      <c r="E576" s="28"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="E577" s="25"/>
+      <c r="E577" s="28"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="E578" s="25"/>
+      <c r="E578" s="28"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="E579" s="25"/>
+      <c r="E579" s="28"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="E580" s="25"/>
+      <c r="E580" s="28"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="E581" s="25"/>
+      <c r="E581" s="28"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="E582" s="25"/>
+      <c r="E582" s="28"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="E583" s="25"/>
+      <c r="E583" s="28"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="E584" s="25"/>
+      <c r="E584" s="28"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="E585" s="25"/>
+      <c r="E585" s="28"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="E586" s="25"/>
+      <c r="E586" s="28"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="E587" s="25"/>
+      <c r="E587" s="28"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="E588" s="25"/>
+      <c r="E588" s="28"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="E589" s="25"/>
+      <c r="E589" s="28"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="E590" s="25"/>
+      <c r="E590" s="28"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="E591" s="25"/>
+      <c r="E591" s="28"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="E592" s="25"/>
+      <c r="E592" s="28"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="E593" s="25"/>
+      <c r="E593" s="28"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="E594" s="25"/>
+      <c r="E594" s="28"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="E595" s="25"/>
+      <c r="E595" s="28"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="E596" s="25"/>
+      <c r="E596" s="28"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="E597" s="25"/>
+      <c r="E597" s="28"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="E598" s="25"/>
+      <c r="E598" s="28"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="E599" s="25"/>
+      <c r="E599" s="28"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="E600" s="25"/>
+      <c r="E600" s="28"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="E601" s="25"/>
+      <c r="E601" s="28"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="E602" s="25"/>
+      <c r="E602" s="28"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="E603" s="25"/>
+      <c r="E603" s="28"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="E604" s="25"/>
+      <c r="E604" s="28"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="E605" s="25"/>
+      <c r="E605" s="28"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="E606" s="25"/>
+      <c r="E606" s="28"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="E607" s="25"/>
+      <c r="E607" s="28"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="E608" s="25"/>
+      <c r="E608" s="28"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="E609" s="25"/>
+      <c r="E609" s="28"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="E610" s="25"/>
+      <c r="E610" s="28"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="E611" s="25"/>
+      <c r="E611" s="28"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="E612" s="25"/>
+      <c r="E612" s="28"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="E613" s="25"/>
+      <c r="E613" s="28"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="E614" s="25"/>
+      <c r="E614" s="28"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="E615" s="25"/>
+      <c r="E615" s="28"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="E616" s="25"/>
+      <c r="E616" s="28"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="E617" s="25"/>
+      <c r="E617" s="28"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="E618" s="25"/>
+      <c r="E618" s="28"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="E619" s="25"/>
+      <c r="E619" s="28"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="E620" s="25"/>
+      <c r="E620" s="28"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="E621" s="25"/>
+      <c r="E621" s="28"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="E622" s="25"/>
+      <c r="E622" s="28"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="E623" s="25"/>
+      <c r="E623" s="28"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="E624" s="25"/>
+      <c r="E624" s="28"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="E625" s="25"/>
+      <c r="E625" s="28"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="E626" s="25"/>
+      <c r="E626" s="28"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="E627" s="25"/>
+      <c r="E627" s="28"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="E628" s="25"/>
+      <c r="E628" s="28"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="E629" s="25"/>
+      <c r="E629" s="28"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="E630" s="25"/>
+      <c r="E630" s="28"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="E631" s="25"/>
+      <c r="E631" s="28"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="E632" s="25"/>
+      <c r="E632" s="28"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="E633" s="25"/>
+      <c r="E633" s="28"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="E634" s="25"/>
+      <c r="E634" s="28"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="E635" s="25"/>
+      <c r="E635" s="28"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="E636" s="25"/>
+      <c r="E636" s="28"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="E637" s="25"/>
+      <c r="E637" s="28"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="E638" s="25"/>
+      <c r="E638" s="28"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="E639" s="25"/>
+      <c r="E639" s="28"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="E640" s="25"/>
+      <c r="E640" s="28"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="E641" s="25"/>
+      <c r="E641" s="28"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="E642" s="25"/>
+      <c r="E642" s="28"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="E643" s="25"/>
+      <c r="E643" s="28"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="E644" s="25"/>
+      <c r="E644" s="28"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="E645" s="25"/>
+      <c r="E645" s="28"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="E646" s="25"/>
+      <c r="E646" s="28"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="E647" s="25"/>
+      <c r="E647" s="28"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="E648" s="25"/>
+      <c r="E648" s="28"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="E649" s="25"/>
+      <c r="E649" s="28"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="E650" s="25"/>
+      <c r="E650" s="28"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="E651" s="25"/>
+      <c r="E651" s="28"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="E652" s="25"/>
+      <c r="E652" s="28"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="E653" s="25"/>
+      <c r="E653" s="28"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="E654" s="25"/>
+      <c r="E654" s="28"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="E655" s="25"/>
+      <c r="E655" s="28"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="E656" s="25"/>
+      <c r="E656" s="28"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="E657" s="25"/>
+      <c r="E657" s="28"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="E658" s="25"/>
+      <c r="E658" s="28"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="E659" s="25"/>
+      <c r="E659" s="28"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="E660" s="25"/>
+      <c r="E660" s="28"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="E661" s="25"/>
+      <c r="E661" s="28"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="E662" s="25"/>
+      <c r="E662" s="28"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="E663" s="25"/>
+      <c r="E663" s="28"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="E664" s="25"/>
+      <c r="E664" s="28"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="E665" s="25"/>
+      <c r="E665" s="28"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="E666" s="25"/>
+      <c r="E666" s="28"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="E667" s="25"/>
+      <c r="E667" s="28"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="E668" s="25"/>
+      <c r="E668" s="28"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="E669" s="25"/>
+      <c r="E669" s="28"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="E670" s="25"/>
+      <c r="E670" s="28"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="E671" s="25"/>
+      <c r="E671" s="28"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="E672" s="25"/>
+      <c r="E672" s="28"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="E673" s="25"/>
+      <c r="E673" s="28"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="E674" s="25"/>
+      <c r="E674" s="28"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="E675" s="25"/>
+      <c r="E675" s="28"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="E676" s="25"/>
+      <c r="E676" s="28"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="E677" s="25"/>
+      <c r="E677" s="28"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="E678" s="25"/>
+      <c r="E678" s="28"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="E679" s="25"/>
+      <c r="E679" s="28"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="E680" s="25"/>
+      <c r="E680" s="28"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="E681" s="25"/>
+      <c r="E681" s="28"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="E682" s="25"/>
+      <c r="E682" s="28"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="E683" s="25"/>
+      <c r="E683" s="28"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="E684" s="25"/>
+      <c r="E684" s="28"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="E685" s="25"/>
+      <c r="E685" s="28"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="E686" s="25"/>
+      <c r="E686" s="28"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="E687" s="25"/>
+      <c r="E687" s="28"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="E688" s="25"/>
+      <c r="E688" s="28"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="E689" s="25"/>
+      <c r="E689" s="28"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="E690" s="25"/>
+      <c r="E690" s="28"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="E691" s="25"/>
+      <c r="E691" s="28"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="E692" s="25"/>
+      <c r="E692" s="28"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="E693" s="25"/>
+      <c r="E693" s="28"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="E694" s="25"/>
+      <c r="E694" s="28"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="E695" s="25"/>
+      <c r="E695" s="28"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="E696" s="25"/>
+      <c r="E696" s="28"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="E697" s="25"/>
+      <c r="E697" s="28"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="E698" s="25"/>
+      <c r="E698" s="28"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="E699" s="25"/>
+      <c r="E699" s="28"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="E700" s="25"/>
+      <c r="E700" s="28"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="E701" s="25"/>
+      <c r="E701" s="28"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="E702" s="25"/>
+      <c r="E702" s="28"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="E703" s="25"/>
+      <c r="E703" s="28"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="E704" s="25"/>
+      <c r="E704" s="28"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="E705" s="25"/>
+      <c r="E705" s="28"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="E706" s="25"/>
+      <c r="E706" s="28"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="E707" s="25"/>
+      <c r="E707" s="28"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="E708" s="25"/>
+      <c r="E708" s="28"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="E709" s="25"/>
+      <c r="E709" s="28"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="E710" s="25"/>
+      <c r="E710" s="28"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="E711" s="25"/>
+      <c r="E711" s="28"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="E712" s="25"/>
+      <c r="E712" s="28"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="E713" s="25"/>
+      <c r="E713" s="28"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="E714" s="25"/>
+      <c r="E714" s="28"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="E715" s="25"/>
+      <c r="E715" s="28"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="E716" s="25"/>
+      <c r="E716" s="28"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="E717" s="25"/>
+      <c r="E717" s="28"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="E718" s="25"/>
+      <c r="E718" s="28"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="E719" s="25"/>
+      <c r="E719" s="28"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="E720" s="25"/>
+      <c r="E720" s="28"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="E721" s="25"/>
+      <c r="E721" s="28"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="E722" s="25"/>
+      <c r="E722" s="28"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="E723" s="25"/>
+      <c r="E723" s="28"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="E724" s="25"/>
+      <c r="E724" s="28"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="E725" s="25"/>
+      <c r="E725" s="28"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="E726" s="25"/>
+      <c r="E726" s="28"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="E727" s="25"/>
+      <c r="E727" s="28"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="E728" s="25"/>
+      <c r="E728" s="28"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="E729" s="25"/>
+      <c r="E729" s="28"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="E730" s="25"/>
+      <c r="E730" s="28"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="E731" s="25"/>
+      <c r="E731" s="28"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="E732" s="25"/>
+      <c r="E732" s="28"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="E733" s="25"/>
+      <c r="E733" s="28"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="E734" s="25"/>
+      <c r="E734" s="28"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="E735" s="25"/>
+      <c r="E735" s="28"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="E736" s="25"/>
+      <c r="E736" s="28"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="E737" s="25"/>
+      <c r="E737" s="28"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="E738" s="25"/>
+      <c r="E738" s="28"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="E739" s="25"/>
+      <c r="E739" s="28"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="E740" s="25"/>
+      <c r="E740" s="28"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="E741" s="25"/>
+      <c r="E741" s="28"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="E742" s="25"/>
+      <c r="E742" s="28"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="E743" s="25"/>
+      <c r="E743" s="28"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="E744" s="25"/>
+      <c r="E744" s="28"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="E745" s="25"/>
+      <c r="E745" s="28"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="E746" s="25"/>
+      <c r="E746" s="28"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="E747" s="25"/>
+      <c r="E747" s="28"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="E748" s="25"/>
+      <c r="E748" s="28"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="E749" s="25"/>
+      <c r="E749" s="28"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="E750" s="25"/>
+      <c r="E750" s="28"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="E751" s="25"/>
+      <c r="E751" s="28"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="E752" s="25"/>
+      <c r="E752" s="28"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="E753" s="25"/>
+      <c r="E753" s="28"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="E754" s="25"/>
+      <c r="E754" s="28"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="E755" s="25"/>
+      <c r="E755" s="28"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="E756" s="25"/>
+      <c r="E756" s="28"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="E757" s="25"/>
+      <c r="E757" s="28"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="E758" s="25"/>
+      <c r="E758" s="28"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="E759" s="25"/>
+      <c r="E759" s="28"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="E760" s="25"/>
+      <c r="E760" s="28"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="E761" s="25"/>
+      <c r="E761" s="28"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="E762" s="25"/>
+      <c r="E762" s="28"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="E763" s="25"/>
+      <c r="E763" s="28"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="E764" s="25"/>
+      <c r="E764" s="28"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="E765" s="25"/>
+      <c r="E765" s="28"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="E766" s="25"/>
+      <c r="E766" s="28"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="E767" s="25"/>
+      <c r="E767" s="28"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="E768" s="25"/>
+      <c r="E768" s="28"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="E769" s="25"/>
+      <c r="E769" s="28"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="E770" s="25"/>
+      <c r="E770" s="28"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="E771" s="25"/>
+      <c r="E771" s="28"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="E772" s="25"/>
+      <c r="E772" s="28"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="E773" s="25"/>
+      <c r="E773" s="28"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="E774" s="25"/>
+      <c r="E774" s="28"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="E775" s="25"/>
+      <c r="E775" s="28"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="E776" s="25"/>
+      <c r="E776" s="28"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="E777" s="25"/>
+      <c r="E777" s="28"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="E778" s="25"/>
+      <c r="E778" s="28"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="E779" s="25"/>
+      <c r="E779" s="28"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="E780" s="25"/>
+      <c r="E780" s="28"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="E781" s="25"/>
+      <c r="E781" s="28"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="E782" s="25"/>
+      <c r="E782" s="28"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="E783" s="25"/>
+      <c r="E783" s="28"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="E784" s="25"/>
+      <c r="E784" s="28"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="E785" s="25"/>
+      <c r="E785" s="28"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="E786" s="25"/>
+      <c r="E786" s="28"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="E787" s="25"/>
+      <c r="E787" s="28"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="E788" s="25"/>
+      <c r="E788" s="28"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="E789" s="25"/>
+      <c r="E789" s="28"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="E790" s="25"/>
+      <c r="E790" s="28"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="E791" s="25"/>
+      <c r="E791" s="28"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="E792" s="25"/>
+      <c r="E792" s="28"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="E793" s="25"/>
+      <c r="E793" s="28"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="E794" s="25"/>
+      <c r="E794" s="28"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="E795" s="25"/>
+      <c r="E795" s="28"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="E796" s="25"/>
+      <c r="E796" s="28"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="E797" s="25"/>
+      <c r="E797" s="28"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="E798" s="25"/>
+      <c r="E798" s="28"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="E799" s="25"/>
+      <c r="E799" s="28"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="E800" s="25"/>
+      <c r="E800" s="28"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="E801" s="25"/>
+      <c r="E801" s="28"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="E802" s="25"/>
+      <c r="E802" s="28"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="E803" s="25"/>
+      <c r="E803" s="28"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="E804" s="25"/>
+      <c r="E804" s="28"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="E805" s="25"/>
+      <c r="E805" s="28"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="E806" s="25"/>
+      <c r="E806" s="28"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="E807" s="25"/>
+      <c r="E807" s="28"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="E808" s="25"/>
+      <c r="E808" s="28"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="E809" s="25"/>
+      <c r="E809" s="28"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="E810" s="25"/>
+      <c r="E810" s="28"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="E811" s="25"/>
+      <c r="E811" s="28"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="E812" s="25"/>
+      <c r="E812" s="28"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="E813" s="25"/>
+      <c r="E813" s="28"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="E814" s="25"/>
+      <c r="E814" s="28"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="E815" s="25"/>
+      <c r="E815" s="28"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="E816" s="25"/>
+      <c r="E816" s="28"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="E817" s="25"/>
+      <c r="E817" s="28"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="E818" s="25"/>
+      <c r="E818" s="28"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="E819" s="25"/>
+      <c r="E819" s="28"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="E820" s="25"/>
+      <c r="E820" s="28"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="E821" s="25"/>
+      <c r="E821" s="28"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="E822" s="25"/>
+      <c r="E822" s="28"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="E823" s="25"/>
+      <c r="E823" s="28"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="E824" s="25"/>
+      <c r="E824" s="28"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="E825" s="25"/>
+      <c r="E825" s="28"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="E826" s="25"/>
+      <c r="E826" s="28"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="E827" s="25"/>
+      <c r="E827" s="28"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="E828" s="25"/>
+      <c r="E828" s="28"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="E829" s="25"/>
+      <c r="E829" s="28"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="E830" s="25"/>
+      <c r="E830" s="28"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="E831" s="25"/>
+      <c r="E831" s="28"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="E832" s="25"/>
+      <c r="E832" s="28"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="E833" s="25"/>
+      <c r="E833" s="28"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="E834" s="25"/>
+      <c r="E834" s="28"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="E835" s="25"/>
+      <c r="E835" s="28"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="E836" s="25"/>
+      <c r="E836" s="28"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="E837" s="25"/>
+      <c r="E837" s="28"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="E838" s="25"/>
+      <c r="E838" s="28"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="E839" s="25"/>
+      <c r="E839" s="28"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="E840" s="25"/>
+      <c r="E840" s="28"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="E841" s="25"/>
+      <c r="E841" s="28"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="E842" s="25"/>
+      <c r="E842" s="28"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="E843" s="25"/>
+      <c r="E843" s="28"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="E844" s="25"/>
+      <c r="E844" s="28"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="E845" s="25"/>
+      <c r="E845" s="28"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="E846" s="25"/>
+      <c r="E846" s="28"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="E847" s="25"/>
+      <c r="E847" s="28"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="E848" s="25"/>
+      <c r="E848" s="28"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="E849" s="25"/>
+      <c r="E849" s="28"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="E850" s="25"/>
+      <c r="E850" s="28"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="E851" s="25"/>
+      <c r="E851" s="28"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="E852" s="25"/>
+      <c r="E852" s="28"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="E853" s="25"/>
+      <c r="E853" s="28"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="E854" s="25"/>
+      <c r="E854" s="28"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="E855" s="25"/>
+      <c r="E855" s="28"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="E856" s="25"/>
+      <c r="E856" s="28"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="E857" s="25"/>
+      <c r="E857" s="28"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="E858" s="25"/>
+      <c r="E858" s="28"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="E859" s="25"/>
+      <c r="E859" s="28"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="E860" s="25"/>
+      <c r="E860" s="28"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="E861" s="25"/>
+      <c r="E861" s="28"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="E862" s="25"/>
+      <c r="E862" s="28"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="E863" s="25"/>
+      <c r="E863" s="28"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="E864" s="25"/>
+      <c r="E864" s="28"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="E865" s="25"/>
+      <c r="E865" s="28"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="E866" s="25"/>
+      <c r="E866" s="28"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="E867" s="25"/>
+      <c r="E867" s="28"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="E868" s="25"/>
+      <c r="E868" s="28"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="E869" s="25"/>
+      <c r="E869" s="28"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="E870" s="25"/>
+      <c r="E870" s="28"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="E871" s="25"/>
+      <c r="E871" s="28"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="E872" s="25"/>
+      <c r="E872" s="28"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="E873" s="25"/>
+      <c r="E873" s="28"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="E874" s="25"/>
+      <c r="E874" s="28"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="E875" s="25"/>
+      <c r="E875" s="28"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="E876" s="25"/>
+      <c r="E876" s="28"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="E877" s="25"/>
+      <c r="E877" s="28"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="E878" s="25"/>
+      <c r="E878" s="28"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="E879" s="25"/>
+      <c r="E879" s="28"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="E880" s="25"/>
+      <c r="E880" s="28"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="E881" s="25"/>
+      <c r="E881" s="28"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="E882" s="25"/>
+      <c r="E882" s="28"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="E883" s="25"/>
+      <c r="E883" s="28"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="E884" s="25"/>
+      <c r="E884" s="28"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="E885" s="25"/>
+      <c r="E885" s="28"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="E886" s="25"/>
+      <c r="E886" s="28"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="E887" s="25"/>
+      <c r="E887" s="28"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="E888" s="25"/>
+      <c r="E888" s="28"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="E889" s="25"/>
+      <c r="E889" s="28"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="E890" s="25"/>
+      <c r="E890" s="28"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="E891" s="25"/>
+      <c r="E891" s="28"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="E892" s="25"/>
+      <c r="E892" s="28"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="E893" s="25"/>
+      <c r="E893" s="28"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="E894" s="25"/>
+      <c r="E894" s="28"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="E895" s="25"/>
+      <c r="E895" s="28"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="E896" s="25"/>
+      <c r="E896" s="28"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="E897" s="25"/>
+      <c r="E897" s="28"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="E898" s="25"/>
+      <c r="E898" s="28"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="E899" s="25"/>
+      <c r="E899" s="28"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="E900" s="25"/>
+      <c r="E900" s="28"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="E901" s="25"/>
+      <c r="E901" s="28"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="E902" s="25"/>
+      <c r="E902" s="28"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="E903" s="25"/>
+      <c r="E903" s="28"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="E904" s="25"/>
+      <c r="E904" s="28"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="E905" s="25"/>
+      <c r="E905" s="28"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="E906" s="25"/>
+      <c r="E906" s="28"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="E907" s="25"/>
+      <c r="E907" s="28"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="E908" s="25"/>
+      <c r="E908" s="28"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="E909" s="25"/>
+      <c r="E909" s="28"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="E910" s="25"/>
+      <c r="E910" s="28"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="E911" s="25"/>
+      <c r="E911" s="28"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="E912" s="25"/>
+      <c r="E912" s="28"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="E913" s="25"/>
+      <c r="E913" s="28"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="E914" s="25"/>
+      <c r="E914" s="28"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="E915" s="25"/>
+      <c r="E915" s="28"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="E916" s="25"/>
+      <c r="E916" s="28"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="E917" s="25"/>
+      <c r="E917" s="28"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="E918" s="25"/>
+      <c r="E918" s="28"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="E919" s="25"/>
+      <c r="E919" s="28"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="E920" s="25"/>
+      <c r="E920" s="28"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="E921" s="25"/>
+      <c r="E921" s="28"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="E922" s="25"/>
+      <c r="E922" s="28"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="E923" s="25"/>
+      <c r="E923" s="28"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="E924" s="25"/>
+      <c r="E924" s="28"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="E925" s="25"/>
+      <c r="E925" s="28"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="E926" s="25"/>
+      <c r="E926" s="28"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="E927" s="25"/>
+      <c r="E927" s="28"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="E928" s="25"/>
+      <c r="E928" s="28"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="E929" s="25"/>
+      <c r="E929" s="28"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="E930" s="25"/>
+      <c r="E930" s="28"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="E931" s="25"/>
+      <c r="E931" s="28"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="E932" s="25"/>
+      <c r="E932" s="28"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="E933" s="25"/>
+      <c r="E933" s="28"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="E934" s="25"/>
+      <c r="E934" s="28"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="E935" s="25"/>
+      <c r="E935" s="28"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="E936" s="25"/>
+      <c r="E936" s="28"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="E937" s="25"/>
+      <c r="E937" s="28"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="E938" s="25"/>
+      <c r="E938" s="28"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="E939" s="25"/>
+      <c r="E939" s="28"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="E940" s="25"/>
+      <c r="E940" s="28"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="E941" s="25"/>
+      <c r="E941" s="28"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="E942" s="25"/>
+      <c r="E942" s="28"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="E943" s="25"/>
+      <c r="E943" s="28"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="E944" s="25"/>
+      <c r="E944" s="28"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="E945" s="25"/>
+      <c r="E945" s="28"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="E946" s="25"/>
+      <c r="E946" s="28"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="E947" s="25"/>
+      <c r="E947" s="28"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="E948" s="25"/>
+      <c r="E948" s="28"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="E949" s="25"/>
+      <c r="E949" s="28"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="E950" s="25"/>
+      <c r="E950" s="28"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="E951" s="25"/>
+      <c r="E951" s="28"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="E952" s="25"/>
+      <c r="E952" s="28"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="E953" s="25"/>
+      <c r="E953" s="28"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="E954" s="25"/>
+      <c r="E954" s="28"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="E955" s="25"/>
+      <c r="E955" s="28"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="E956" s="25"/>
+      <c r="E956" s="28"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="E957" s="25"/>
+      <c r="E957" s="28"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="E958" s="25"/>
+      <c r="E958" s="28"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="E959" s="25"/>
+      <c r="E959" s="28"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="E960" s="25"/>
+      <c r="E960" s="28"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="E961" s="25"/>
+      <c r="E961" s="28"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="E962" s="25"/>
+      <c r="E962" s="28"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="E963" s="25"/>
+      <c r="E963" s="28"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="E964" s="25"/>
+      <c r="E964" s="28"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="E965" s="25"/>
+      <c r="E965" s="28"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="E966" s="25"/>
+      <c r="E966" s="28"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="E967" s="25"/>
+      <c r="E967" s="28"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="E968" s="25"/>
+      <c r="E968" s="28"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="E969" s="25"/>
+      <c r="E969" s="28"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="E970" s="25"/>
+      <c r="E970" s="28"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="E971" s="25"/>
+      <c r="E971" s="28"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="E972" s="25"/>
+      <c r="E972" s="28"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="E973" s="25"/>
+      <c r="E973" s="28"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="E974" s="25"/>
+      <c r="E974" s="28"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="E975" s="25"/>
+      <c r="E975" s="28"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="E976" s="25"/>
+      <c r="E976" s="28"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="E977" s="25"/>
+      <c r="E977" s="28"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="E978" s="25"/>
+      <c r="E978" s="28"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="E979" s="25"/>
+      <c r="E979" s="28"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="E980" s="25"/>
+      <c r="E980" s="28"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="E981" s="25"/>
+      <c r="E981" s="28"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="E982" s="25"/>
+      <c r="E982" s="28"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="E983" s="25"/>
+      <c r="E983" s="28"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="E984" s="25"/>
+      <c r="E984" s="28"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="E985" s="25"/>
+      <c r="E985" s="28"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="E986" s="25"/>
+      <c r="E986" s="28"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="E987" s="25"/>
+      <c r="E987" s="28"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="E988" s="25"/>
+      <c r="E988" s="28"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="E989" s="25"/>
+      <c r="E989" s="28"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="E990" s="25"/>
+      <c r="E990" s="28"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="E991" s="25"/>
+      <c r="E991" s="28"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="E992" s="25"/>
+      <c r="E992" s="28"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="E993" s="25"/>
+      <c r="E993" s="28"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="E994" s="25"/>
+      <c r="E994" s="28"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="E995" s="25"/>
+      <c r="E995" s="28"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="E996" s="25"/>
+      <c r="E996" s="28"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="E997" s="25"/>
+      <c r="E997" s="28"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="E998" s="25"/>
+      <c r="E998" s="28"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="E999" s="25"/>
+      <c r="E999" s="28"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="E1000" s="25"/>
+      <c r="E1000" s="28"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -5571,1045 +5648,1052 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="A1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW1" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX1" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA1" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN1" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ1" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS1" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT1" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX1" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ1" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
+      <c r="F2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="34"/>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
+      <c r="A3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="34"/>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
+      <c r="A4" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="34"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="30"/>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="30"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="30"/>
-      <c r="AW5" s="30"/>
-      <c r="AX5" s="30"/>
-      <c r="AY5" s="30"/>
-      <c r="AZ5" s="30"/>
+      <c r="A5" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="36"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="37"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="37"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="37"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="37"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="37"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="37"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="37"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="37"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="37"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="37"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="37"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="37"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="37"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="37"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="31"/>
+      <c r="A23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="31"/>
+      <c r="A25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="31"/>
+      <c r="A26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="31"/>
+      <c r="A27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="31"/>
+      <c r="A29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="31"/>
+      <c r="A30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="31"/>
+      <c r="A31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="31"/>
+      <c r="A34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="31"/>
+      <c r="A38" s="37"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="37"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="31"/>
+      <c r="A41" s="37"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="37"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="37"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="37"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="31"/>
+      <c r="A45" s="37"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="37"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="31"/>
+      <c r="A47" s="37"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="31"/>
+      <c r="A48" s="37"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="37"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="31"/>
+      <c r="A50" s="37"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="31"/>
+      <c r="A51" s="37"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="37"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="31"/>
+      <c r="A55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="31"/>
+      <c r="A56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="31"/>
+      <c r="A61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="31"/>
+      <c r="A63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="31"/>
+      <c r="A64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="31"/>
+      <c r="A65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="37"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="31"/>
+      <c r="A69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="31"/>
+      <c r="A70" s="37"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="31"/>
+      <c r="A71" s="37"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="31"/>
+      <c r="A72" s="37"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="31"/>
+      <c r="A73" s="37"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="37"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="37"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="31"/>
+      <c r="A76" s="37"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="31"/>
+      <c r="A77" s="37"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="31"/>
+      <c r="A78" s="37"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="31"/>
+      <c r="A79" s="37"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="37"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="31"/>
+      <c r="A81" s="37"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="37"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="31"/>
+      <c r="A83" s="37"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="31"/>
+      <c r="A84" s="37"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="31"/>
+      <c r="A85" s="37"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="31"/>
+      <c r="A86" s="37"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="31"/>
+      <c r="A87" s="37"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="31"/>
+      <c r="A88" s="37"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="31"/>
+      <c r="A89" s="37"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="31"/>
+      <c r="A90" s="37"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="31"/>
+      <c r="A91" s="37"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="31"/>
+      <c r="A92" s="37"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="31"/>
+      <c r="A93" s="37"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="31"/>
+      <c r="A94" s="37"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="31"/>
+      <c r="A95" s="37"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="31"/>
+      <c r="A96" s="37"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="31"/>
+      <c r="A97" s="37"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="31"/>
+      <c r="A98" s="37"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="31"/>
+      <c r="A99" s="37"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="31"/>
+      <c r="A100" s="37"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="31"/>
+      <c r="A101" s="37"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="31"/>
+      <c r="A102" s="37"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="31"/>
+      <c r="A103" s="37"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="31"/>
+      <c r="A104" s="37"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="31"/>
+      <c r="A105" s="37"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="31"/>
+      <c r="A106" s="37"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="31"/>
+      <c r="A107" s="37"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="31"/>
+      <c r="A108" s="37"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="31"/>
+      <c r="A109" s="37"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="31"/>
+      <c r="A110" s="37"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="31"/>
+      <c r="A111" s="37"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="31"/>
+      <c r="A112" s="37"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="31"/>
+      <c r="A113" s="37"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="31"/>
+      <c r="A114" s="37"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="31"/>
+      <c r="A115" s="37"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="31"/>
+      <c r="A116" s="37"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="31"/>
+      <c r="A117" s="37"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="31"/>
+      <c r="A118" s="37"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="31"/>
+      <c r="A119" s="37"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="31"/>
+      <c r="A120" s="37"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="31"/>
+      <c r="A121" s="37"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="31"/>
+      <c r="A122" s="37"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="31"/>
+      <c r="A123" s="37"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="31"/>
+      <c r="A124" s="37"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="31"/>
+      <c r="A125" s="37"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="31"/>
+      <c r="A126" s="37"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="31"/>
+      <c r="A127" s="37"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="31"/>
+      <c r="A128" s="37"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="31"/>
+      <c r="A129" s="37"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="31"/>
+      <c r="A130" s="37"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="31"/>
+      <c r="A131" s="37"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="31"/>
+      <c r="A132" s="37"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="31"/>
+      <c r="A133" s="37"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="31"/>
+      <c r="A134" s="37"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="31"/>
+      <c r="A135" s="37"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="31"/>
+      <c r="A136" s="37"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="31"/>
+      <c r="A137" s="37"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="31"/>
+      <c r="A138" s="37"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="31"/>
+      <c r="A139" s="37"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="31"/>
+      <c r="A140" s="37"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="31"/>
+      <c r="A141" s="37"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="31"/>
+      <c r="A142" s="37"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="31"/>
+      <c r="A143" s="37"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="31"/>
+      <c r="A144" s="37"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="31"/>
+      <c r="A145" s="37"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="31"/>
+      <c r="A146" s="37"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="31"/>
+      <c r="A147" s="37"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="31"/>
+      <c r="A148" s="37"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="31"/>
+      <c r="A149" s="37"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="31"/>
+      <c r="A150" s="37"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="31"/>
+      <c r="A151" s="37"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="31"/>
+      <c r="A152" s="37"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="31"/>
+      <c r="A153" s="37"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="31"/>
+      <c r="A154" s="37"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="31"/>
+      <c r="A155" s="37"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="31"/>
+      <c r="A156" s="37"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="31"/>
+      <c r="A157" s="37"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="31"/>
+      <c r="A158" s="37"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="31"/>
+      <c r="A159" s="37"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="31"/>
+      <c r="A160" s="37"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="31"/>
+      <c r="A161" s="37"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="31"/>
+      <c r="A162" s="37"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="31"/>
+      <c r="A163" s="37"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="31"/>
+      <c r="A164" s="37"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="31"/>
+      <c r="A165" s="37"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="31"/>
+      <c r="A166" s="37"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="31"/>
+      <c r="A167" s="37"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="31"/>
+      <c r="A168" s="37"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="31"/>
+      <c r="A169" s="37"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="31"/>
+      <c r="A170" s="37"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="31"/>
+      <c r="A171" s="37"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="31"/>
+      <c r="A172" s="37"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="31"/>
+      <c r="A173" s="37"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="31"/>
+      <c r="A174" s="37"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="31"/>
+      <c r="A175" s="37"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="31"/>
+      <c r="A176" s="37"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="31"/>
+      <c r="A177" s="37"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="31"/>
+      <c r="A178" s="37"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="31"/>
+      <c r="A179" s="37"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="31"/>
+      <c r="A180" s="37"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="31"/>
+      <c r="A181" s="37"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="31"/>
+      <c r="A182" s="37"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="31"/>
+      <c r="A183" s="37"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="31"/>
+      <c r="A184" s="37"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="31"/>
+      <c r="A185" s="37"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="31"/>
+      <c r="A186" s="37"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="31"/>
+      <c r="A187" s="37"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="31"/>
+      <c r="A188" s="37"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="31"/>
+      <c r="A189" s="37"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="31"/>
+      <c r="A190" s="37"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="31"/>
+      <c r="A191" s="37"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="31"/>
+      <c r="A192" s="37"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="31"/>
+      <c r="A193" s="37"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="31"/>
+      <c r="A194" s="37"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="31"/>
+      <c r="A195" s="37"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="31"/>
+      <c r="A196" s="37"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="31"/>
+      <c r="A197" s="37"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="31"/>
+      <c r="A198" s="37"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="31"/>
+      <c r="A199" s="37"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="31"/>
+      <c r="A200" s="37"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="31"/>
+      <c r="A201" s="37"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="31"/>
+      <c r="A202" s="37"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="31"/>
+      <c r="A203" s="37"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="31"/>
+      <c r="A204" s="37"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="31"/>
+      <c r="A205" s="37"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="31"/>
+      <c r="A206" s="37"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="31"/>
+      <c r="A207" s="37"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="31"/>
+      <c r="A208" s="37"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="31"/>
+      <c r="A209" s="37"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="31"/>
+      <c r="A210" s="37"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="31"/>
+      <c r="A211" s="37"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="31"/>
+      <c r="A212" s="37"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="31"/>
+      <c r="A213" s="37"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="31"/>
+      <c r="A214" s="37"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="31"/>
+      <c r="A215" s="37"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="31"/>
+      <c r="A216" s="37"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="31"/>
+      <c r="A217" s="37"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="31"/>
+      <c r="A218" s="37"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="31"/>
+      <c r="A219" s="37"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="31"/>
+      <c r="A220" s="37"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RO.UTI.xlsx
+++ b/TNR_JDD/JDD.RO.UTI.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>FOREIGNKEY</t>
+  </si>
+  <si>
+    <t>ID_NUMEQU*EQU*ST_CODCOU</t>
   </si>
   <si>
     <t>LOCATOR</t>
@@ -5889,7 +5892,9 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="H3" s="33" t="s">
+        <v>125</v>
+      </c>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
@@ -5938,7 +5943,7 @@
     </row>
     <row r="4">
       <c r="A4" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -5995,7 +6000,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
